--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail14 Features.xlsx
@@ -7243,7 +7243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7254,29 +7254,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7297,115 +7295,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -7422,72 +7410,66 @@
         <v>1.788451905726043e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.3703485209744391</v>
+        <v>9.745244289039763e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.4956800414668496</v>
+        <v>2.562483284009674e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.745244289039763e-07</v>
+        <v>0.03710804626410431</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.562483284009674e-06</v>
+        <v>0.231036416686078</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.03710804626410431</v>
+        <v>0.05469133662764946</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.231036416686078</v>
+        <v>1.728769141472795</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05469133662764946</v>
+        <v>1.632939595671236</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.667510876030409</v>
+        <v>3.737091512415136</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.632939595671236</v>
+        <v>3.934824688788336e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.737091512415136</v>
+        <v>40310895.0270788</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.934824688788336e-15</v>
+        <v>2.808401745836101e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>40310895.0270788</v>
+        <v>6.39396521961999</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.808401745836101e-06</v>
+        <v>0.0001656267098886733</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.39396521961999</v>
+        <v>10.94138774704917</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001656267098886733</v>
+        <v>1.101969767450408</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.94138774704917</v>
+        <v>0.01982783028835959</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.101969767450408</v>
+        <v>2.538387829860433</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01982783028835959</v>
+        <v>0.9515097365883025</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.538387829860433</v>
+        <v>1.801913781286531</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9515097365883025</v>
+        <v>12</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.801913781286531</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1639402774180627</v>
       </c>
     </row>
@@ -7502,72 +7484,66 @@
         <v>1.666729246211068e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.02957349808021762</v>
+        <v>8.169196291843632e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.4579452260810837</v>
+        <v>2.567620840939113e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.169196291843632e-07</v>
+        <v>0.0226070114630067</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.567620840939113e-06</v>
+        <v>0.2183061944968785</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0226070114630067</v>
+        <v>0.04812240055346117</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2183061944968785</v>
+        <v>1.734638205821317</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04812240055346117</v>
+        <v>1.575251964344864</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.675553392270471</v>
+        <v>3.731481846180726</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.575251964344864</v>
+        <v>3.946664298733809e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.731481846180726</v>
+        <v>40344799.6265407</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.946664298733809e-15</v>
+        <v>2.815392373228735e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>40344799.6265407</v>
+        <v>6.423996754296824</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.815392373228735e-06</v>
+        <v>0.0001661172539628319</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.423996754296824</v>
+        <v>10.29641731669578</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001661172539628319</v>
+        <v>1.144061414439647</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.29641731669578</v>
+        <v>0.01761112160758103</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.144061414439647</v>
+        <v>2.667171410002624</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01761112160758103</v>
+        <v>0.9517812617336497</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.667171410002624</v>
+        <v>1.774869906588198</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9517812617336497</v>
+        <v>12</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.774869906588198</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1577758869235943</v>
       </c>
     </row>
@@ -7582,72 +7558,66 @@
         <v>1.612080929774721e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2123098808043176</v>
+        <v>6.886287726802677e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.7937874780147833</v>
+        <v>2.570178241721083e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.886287726802677e-07</v>
+        <v>0.008835403064633873</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.570178241721083e-06</v>
+        <v>0.2022751994897004</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.008835403064633873</v>
+        <v>0.04095770705096512</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2022751994897004</v>
+        <v>1.737198772733437</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04095770705096512</v>
+        <v>1.533575758641881</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.680684935477396</v>
+        <v>3.798829731580395</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.533575758641881</v>
+        <v>3.807967179509474e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.798829731580395</v>
+        <v>42190722.79589913</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.807967179509474e-15</v>
+        <v>2.69190363252997e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>42190722.79589913</v>
+        <v>6.778398976526993</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.69190363252997e-06</v>
+        <v>0.0001819630625947134</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>6.778398976526993</v>
+        <v>9.320254269481717</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001819630625947134</v>
+        <v>1.355716164326126</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.320254269481717</v>
+        <v>0.01580661076915492</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.355716164326126</v>
+        <v>2.730567666158173</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01580661076915492</v>
+        <v>0.9524621709353004</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.730567666158173</v>
+        <v>1.770210282876092</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9524621709353004</v>
+        <v>12</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.770210282876092</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1472933444990664</v>
       </c>
     </row>
@@ -7662,72 +7632,66 @@
         <v>1.604515509501888e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2358670064947503</v>
+        <v>6.144446510007279e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8269132850769529</v>
+        <v>2.57055888043169e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.144446510007279e-07</v>
+        <v>-0.003728402273704916</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.57055888043169e-06</v>
+        <v>0.1830891985795917</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.003728402273704916</v>
+        <v>0.03350925533763197</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1830891985795917</v>
+        <v>1.733546499133257</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03350925533763197</v>
+        <v>1.500470474052335</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.679051763419779</v>
+        <v>3.976366119339879</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.500470474052335</v>
+        <v>3.475522655449873e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.976366119339879</v>
+        <v>45974365.33584985</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.475522655449873e-15</v>
+        <v>2.469675930464493e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>45974365.33584985</v>
+        <v>7.346011588069289</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.469675930464493e-06</v>
+        <v>0.0002122049035804869</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>7.346011588069289</v>
+        <v>9.250363361248741</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002122049035804869</v>
+        <v>1.517022061576714</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.250363361248741</v>
+        <v>0.01815820857084007</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.517022061576714</v>
+        <v>2.61518815846182</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01815820857084007</v>
+        <v>0.9537344608861299</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.61518815846182</v>
+        <v>1.796754676724797</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9537344608861299</v>
+        <v>12</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.796754676724797</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1451153425841144</v>
       </c>
     </row>
@@ -7742,72 +7706,66 @@
         <v>1.626769842517251e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1915322311132509</v>
+        <v>6.248854846687816e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.809052922089406</v>
+        <v>2.569069900359911e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.248854846687816e-07</v>
+        <v>-0.01428992268563452</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.569069900359911e-06</v>
+        <v>0.1643440274782447</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01428992268563452</v>
+        <v>0.02719537821232756</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1643440274782447</v>
+        <v>1.731242259527674</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02719537821232756</v>
+        <v>1.45840865450807</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.67185316212789</v>
+        <v>4.439945554841081</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.45840865450807</v>
+        <v>2.787645626269455e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.439945554841081</v>
+        <v>56693666.87632345</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.787645626269455e-15</v>
+        <v>2.012971515503355e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>56693666.87632345</v>
+        <v>8.959972138433278</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.012971515503355e-06</v>
+        <v>0.0002171760056142824</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8.959972138433278</v>
+        <v>11.06283078703592</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002171760056142824</v>
+        <v>1.196585601697199</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.06283078703592</v>
+        <v>0.02657935149261681</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.196585601697199</v>
+        <v>2.396871277447955</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02657935149261681</v>
+        <v>0.9542175888291829</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.396871277447955</v>
+        <v>1.776374739372759</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9542175888291829</v>
+        <v>23</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.776374739372759</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1679851089234476</v>
       </c>
     </row>
@@ -7822,72 +7780,66 @@
         <v>1.665324677698881e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1414394190190095</v>
+        <v>6.371616583364504e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8225054768865099</v>
+        <v>2.565990534233811e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.371616583364504e-07</v>
+        <v>-0.02268810243666347</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.565990534233811e-06</v>
+        <v>0.1488291507028041</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02268810243666347</v>
+        <v>0.02265446258125129</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1488291507028041</v>
+        <v>1.793650239742404</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02265446258125129</v>
+        <v>1.639779079288806</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.753481433562553</v>
+        <v>3.348479264195404</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.639779079288806</v>
+        <v>2.129317684319709e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.348479264195404</v>
+        <v>77013096.4885754</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.129317684319709e-15</v>
+        <v>1.514091937389537e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>77013096.4885754</v>
+        <v>12.62901944959571</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.514091937389537e-06</v>
+        <v>0.0002297982027577297</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>12.62901944959571</v>
+        <v>13.12198827764138</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002297982027577297</v>
+        <v>1.015118316156598</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>13.12198827764138</v>
+        <v>0.03956816578620314</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.015118316156598</v>
+        <v>2.1774646025692</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.03956816578620314</v>
+        <v>0.9591265392255761</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.1774646025692</v>
+        <v>1.687988724119263</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9591265392255761</v>
+        <v>23</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.687988724119263</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.190025903994292</v>
       </c>
     </row>
@@ -7902,72 +7854,66 @@
         <v>1.711384308955982e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1072253732120789</v>
+        <v>6.510482154503241e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.8575903042927711</v>
+        <v>2.561597229119273e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.510482154503241e-07</v>
+        <v>-0.02896355635121399</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.561597229119273e-06</v>
+        <v>0.1374072294584141</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02896355635121399</v>
+        <v>0.01971406396158325</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1374072294584141</v>
+        <v>1.866968592518738</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01971406396158325</v>
+        <v>1.608414573790744</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.843803722536054</v>
+        <v>3.572466877514555</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.608414573790744</v>
+        <v>1.870678982931226e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.572466877514555</v>
+        <v>86058855.22259298</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.870678982931226e-15</v>
+        <v>1.394250435845313e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>86058855.22259298</v>
+        <v>13.85448530487967</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.394250435845313e-06</v>
+        <v>0.0002430951561699824</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>13.85448530487967</v>
+        <v>12.95506525026173</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0002430951561699824</v>
+        <v>1.101047880743074</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>12.95506525026173</v>
+        <v>0.04079956331373905</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.101047880743074</v>
+        <v>2.299279916270883</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.04079956331373905</v>
+        <v>0.9608687142438419</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.299279916270883</v>
+        <v>1.523449473398948</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9608687142438419</v>
+        <v>22</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.523449473398948</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2064013136718443</v>
       </c>
     </row>
@@ -7982,72 +7928,66 @@
         <v>1.759984592088244e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.09006899411934609</v>
+        <v>6.650788669430513e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.8941079151129516</v>
+        <v>2.556148885268849e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.650788669430513e-07</v>
+        <v>-0.03355977626659214</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.556148885268849e-06</v>
+        <v>0.1289493689503836</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03355977626659214</v>
+        <v>0.01775074340274412</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1289493689503836</v>
+        <v>1.87434095705711</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01775074340274412</v>
+        <v>1.630494914386028</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.851495222724599</v>
+        <v>4.290046566530638</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.630494914386028</v>
+        <v>1.196936610532418e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.290046566530638</v>
+        <v>133263447.1993195</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.196936610532418e-15</v>
+        <v>9.008025885714497e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>133263447.1993195</v>
+        <v>21.25657244942423</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>9.008025885714497e-07</v>
+        <v>0.0002290309768359426</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>21.25657244942423</v>
+        <v>12.40159560913036</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0002290309768359426</v>
+        <v>1.170469427023399</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>12.40159560913036</v>
+        <v>0.03522486659056102</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.170469427023399</v>
+        <v>2.52486435767441</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.03522486659056102</v>
+        <v>0.9602799302344511</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.52486435767441</v>
+        <v>1.523440345690404</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9602799302344511</v>
+        <v>27</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.523440345690404</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.258385919927751</v>
       </c>
     </row>
@@ -8062,72 +8002,66 @@
         <v>1.808241344335151e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.08710935249645413</v>
+        <v>6.779120659087363e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.9219210332160959</v>
+        <v>2.549809917764371e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.779120659087363e-07</v>
+        <v>-0.03738703431127756</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.549809917764371e-06</v>
+        <v>0.1214615880238195</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03738703431127756</v>
+        <v>0.01614763973700072</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1214615880238195</v>
+        <v>1.894566259132061</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01614763973700072</v>
+        <v>1.696171248327918</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.880900757660198</v>
+        <v>4.886343825577029</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.696171248327918</v>
+        <v>5.543665883996345e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.886343825577029</v>
+        <v>286906905.247848</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>5.543665883996345e-16</v>
+        <v>4.197382740260223e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>286906905.247848</v>
+        <v>45.63300297641599</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.197382740260223e-07</v>
+        <v>0.0001860734148279322</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>45.63300297641599</v>
+        <v>10.88167120463794</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001860734148279322</v>
+        <v>1.226479377005416</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.88167120463794</v>
+        <v>0.02203309599246059</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.226479377005416</v>
+        <v>2.816913498543237</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.02203309599246059</v>
+        <v>0.960390291023469</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.816913498543237</v>
+        <v>1.481943114085374</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.960390291023469</v>
+        <v>27</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.481943114085374</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.317246095222436</v>
       </c>
     </row>
@@ -8142,72 +8076,66 @@
         <v>1.853536996366978e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.09660341502764536</v>
+        <v>6.8835402040652e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.9358174651574358</v>
+        <v>2.542625299423837e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>6.8835402040652e-07</v>
+        <v>-0.04104351882921703</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.542625299423837e-06</v>
+        <v>0.113783825221141</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04104351882921703</v>
+        <v>0.01462783909808624</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.113783825221141</v>
+        <v>1.899511753542007</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01462783909808624</v>
+        <v>1.796253100124009</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.897487304607216</v>
+        <v>4.957930852871431</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.796253100124009</v>
+        <v>3.043977515104487e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.957930852871431</v>
+        <v>503459752.0366702</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.043977515104487e-16</v>
+        <v>2.388320636190493e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>503459752.0366702</v>
+        <v>77.15622222418098</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.388320636190493e-07</v>
+        <v>0.0001807038060566061</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>77.15622222418098</v>
+        <v>8.964747168651808</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001807038060566061</v>
+        <v>1.495210605649639</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.964747168651808</v>
+        <v>0.01452256708804983</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.495210605649639</v>
+        <v>2.926889574956308</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01452256708804983</v>
+        <v>0.9605180929885155</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.926889574956308</v>
+        <v>1.446940493032125</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9605180929885155</v>
+        <v>27</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.446940493032125</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.3148071518628867</v>
       </c>
     </row>
@@ -8222,72 +8150,66 @@
         <v>1.892360064700631e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1170387303276876</v>
+        <v>6.951996120234323e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.9312993888983407</v>
+        <v>2.534563201064996e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.951996120234323e-07</v>
+        <v>-0.04507311014228636</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.534563201064996e-06</v>
+        <v>0.1045384925070603</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04507311014228636</v>
+        <v>0.01295461616342783</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1045384925070603</v>
+        <v>1.901527155115654</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01295461616342783</v>
+        <v>1.904102892804194</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.900481513798889</v>
+        <v>4.743203353332343</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.904102892804194</v>
+        <v>2.949393218902067e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.743203353332343</v>
+        <v>497546683.7215663</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.949393218902067e-16</v>
+        <v>2.412636391169135e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>497546683.7215663</v>
+        <v>73.013026202226</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.412636391169135e-07</v>
+        <v>0.0001998703305331498</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>73.013026202226</v>
+        <v>9.039010816700646</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001998703305331498</v>
+        <v>1.566148717405465</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.039010816700646</v>
+        <v>0.01633014883152226</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.566148717405465</v>
+        <v>2.819823049654687</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01633014883152226</v>
+        <v>0.9612026601913027</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.819823049654687</v>
+        <v>1.401798193186206</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9612026601913027</v>
+        <v>27</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.401798193186206</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2858556346535117</v>
       </c>
     </row>
@@ -8302,72 +8224,66 @@
         <v>1.919036384879338e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1445257604595895</v>
+        <v>6.972032475410257e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.9048390516291027</v>
+        <v>2.525503181413497e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>6.972032475410257e-07</v>
+        <v>-0.05007497606306702</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.525503181413497e-06</v>
+        <v>0.09108858148651044</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05007497606306702</v>
+        <v>0.01079624859403231</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.09108858148651044</v>
+        <v>1.901855304554992</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01079624859403231</v>
+        <v>1.952447176931917</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.900911757017943</v>
+        <v>4.5959933921197</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.952447176931917</v>
+        <v>3.924948709506151e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.5959933921197</v>
+        <v>369360488.8695337</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.924948709506151e-16</v>
+        <v>3.24955111409326e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>369360488.8695337</v>
+        <v>53.54696477294565</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.24955111409326e-07</v>
+        <v>0.000211363461659444</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>53.54696477294565</v>
+        <v>10.96965500678115</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.000211363461659444</v>
+        <v>1.243149199043488</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.96965500678115</v>
+        <v>0.02543406938636552</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.243149199043488</v>
+        <v>2.606944656320084</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02543406938636552</v>
+        <v>0.9608860860352911</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.606944656320084</v>
+        <v>1.401957124369612</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9608860860352911</v>
+        <v>24</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.401957124369612</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2703805829921043</v>
       </c>
     </row>
@@ -8382,72 +8298,66 @@
         <v>1.925502913183658e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.1670242033260998</v>
+        <v>6.972032475410257e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.8679309132673332</v>
+        <v>2.515332187284475e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>6.972032475410257e-07</v>
+        <v>-0.05541031639397113</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.515332187284475e-06</v>
+        <v>0.07488310592321473</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05541031639397113</v>
+        <v>0.008672061345914455</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.07488310592321473</v>
+        <v>1.897146848482199</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.008672061345914455</v>
+        <v>1.853505738366186</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.89367742008464</v>
+        <v>4.630322767170522</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.853505738366186</v>
+        <v>5.507784189715525e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.630322767170522</v>
+        <v>263164834.6777865</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>5.507784189715525e-16</v>
+        <v>4.548939433241455e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>263164834.6777865</v>
+        <v>38.14456159032763</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.548939433241455e-07</v>
+        <v>0.0002149847745367844</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>38.14456159032763</v>
+        <v>12.96229304991994</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002149847745367844</v>
+        <v>1.0369454765214</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>12.96229304991994</v>
+        <v>0.03612196564089971</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.0369454765214</v>
+        <v>2.412233835112733</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.03612196564089971</v>
+        <v>0.9616304115268405</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.412233835112733</v>
+        <v>1.432813695153933</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9616304115268405</v>
+        <v>16</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.432813695153933</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2687003542774482</v>
       </c>
     </row>
@@ -8462,72 +8372,66 @@
         <v>1.907954184718785e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.1691864592482603</v>
+        <v>6.972032475410257e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.861475047770921</v>
+        <v>2.504336568403219e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.972032475410257e-07</v>
+        <v>-0.05867654556015735</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.504336568403219e-06</v>
+        <v>0.06754901992781509</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05867654556015735</v>
+        <v>0.008004650711106315</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.06754901992781509</v>
+        <v>1.887561237053703</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.008004650711106315</v>
+        <v>1.790574901372335</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.875013842561048</v>
+        <v>4.409146648557734</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.790574901372335</v>
+        <v>8.227797246612986e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.409146648557734</v>
+        <v>173975600.9805381</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>8.227797246612986e-16</v>
+        <v>6.872771503441751e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>173975600.9805381</v>
+        <v>24.90349332721308</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>6.872771503441751e-07</v>
+        <v>0.0002023335526960216</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>24.90349332721308</v>
+        <v>12.9927264120514</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002023335526960216</v>
+        <v>1.010904682648987</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>12.9927264120514</v>
+        <v>0.03415611714694809</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.010904682648987</v>
+        <v>2.462312900965146</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.03415611714694809</v>
+        <v>0.9639790015682134</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.462312900965146</v>
+        <v>1.45595888657106</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9639790015682134</v>
+        <v>16</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.45595888657106</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2686356956132928</v>
       </c>
     </row>
@@ -8542,72 +8446,66 @@
         <v>1.871056799877954e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.1509381881113383</v>
+        <v>6.966392412354105e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.9120641445651003</v>
+        <v>2.493176180610318e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.966392412354105e-07</v>
+        <v>-0.05887021989585901</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.493176180610318e-06</v>
+        <v>0.0705138334380218</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05887021989585901</v>
+        <v>0.008437374999951053</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.0705138334380218</v>
+        <v>1.848466786055974</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.008437374999951053</v>
+        <v>1.837108882249793</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.818369216340911</v>
+        <v>4.091159303809339</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.837108882249793</v>
+        <v>9.591826392667982e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.091159303809339</v>
+        <v>155461203.4233311</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>9.591826392667982e-16</v>
+        <v>7.592090370124193e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>155461203.4233311</v>
+        <v>23.18170421299614</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>7.592090370124193e-07</v>
+        <v>0.0001972429320714238</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>23.18170421299614</v>
+        <v>11.87040868573924</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001972429320714238</v>
+        <v>1.108899796380209</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.87040868573924</v>
+        <v>0.02779283139898545</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.108899796380209</v>
+        <v>2.594536705950519</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02779283139898545</v>
+        <v>0.9630058737879009</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.594536705950519</v>
+        <v>1.503234102818082</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9630058737879009</v>
+        <v>16</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.503234102818082</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2545507057186872</v>
       </c>
     </row>
@@ -8622,72 +8520,66 @@
         <v>1.823326015925703e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.1247672246527242</v>
+        <v>6.817110537846362e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.003285833633246</v>
+        <v>2.482440785445184e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.817110537846362e-07</v>
+        <v>-0.05711196508479552</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.482440785445184e-06</v>
+        <v>0.07567697370896644</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05711196508479552</v>
+        <v>0.008987469048990509</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.07567697370896644</v>
+        <v>1.809921611252044</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.008987469048990509</v>
+        <v>1.771956136207167</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.760553425230837</v>
+        <v>4.613842557608111</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.771956136207167</v>
+        <v>1.21594143108657e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.613842557608111</v>
+        <v>126078767.4912576</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.21594143108657e-15</v>
+        <v>9.279015599295148e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>126078767.4912576</v>
+        <v>19.32842942134011</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>9.279015599295148e-07</v>
+        <v>0.0002221154445397532</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>19.32842942134011</v>
+        <v>10.29341044540819</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002221154445397532</v>
+        <v>1.428298310939929</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.29341044540819</v>
+        <v>0.02353408613391221</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.428298310939929</v>
+        <v>2.628794178538534</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02353408613391221</v>
+        <v>0.9616274723143085</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.628794178538534</v>
+        <v>1.692966243234708</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9616274723143085</v>
+        <v>17</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.692966243234708</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2094049425910461</v>
       </c>
     </row>
@@ -8702,72 +8594,66 @@
         <v>1.772464866340851e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.101725633662675</v>
+        <v>6.537137808693758e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.105356805233293</v>
+        <v>2.472390251448288e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>6.537137808693758e-07</v>
+        <v>-0.05458026712651886</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.472390251448288e-06</v>
+        <v>0.07910892686979978</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05458026712651886</v>
+        <v>0.009235073451654998</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.07910892686979978</v>
+        <v>1.802600783594911</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.009235073451654998</v>
+        <v>1.771657338913191</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.743745935850425</v>
+        <v>4.129957502141385</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.771657338913191</v>
+        <v>1.52256762095385e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.129957502141385</v>
+        <v>101730349.0539984</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.52256762095385e-15</v>
+        <v>1.146989817043446e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>101730349.0539984</v>
+        <v>15.75714962971575</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.146989817043446e-06</v>
+        <v>0.0002160213750506731</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>15.75714962971575</v>
+        <v>9.624707969138679</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002160213750506731</v>
+        <v>1.58021427486043</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.624707969138679</v>
+        <v>0.02001114083199327</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.58021427486043</v>
+        <v>2.72686631388784</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.02001114083199327</v>
+        <v>0.961950627085291</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.72686631388784</v>
+        <v>1.67844934993567</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.961950627085291</v>
+        <v>17</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.67844934993567</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1734933920305005</v>
       </c>
     </row>
@@ -8782,72 +8668,66 @@
         <v>1.723379897245797e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.08952954706883225</v>
+        <v>6.20040366295172e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.194423174347329</v>
+        <v>2.463109542453774e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6.20040366295172e-07</v>
+        <v>-0.05153046687680651</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.463109542453774e-06</v>
+        <v>0.08117017020721137</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05153046687680651</v>
+        <v>0.009241255017516058</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.08117017020721137</v>
+        <v>1.7929326778936</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.009241255017516058</v>
+        <v>1.813365511935285</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.729571546305288</v>
+        <v>4.072534865828851</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.813365511935285</v>
+        <v>1.565806649691179e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.072534865828851</v>
+        <v>97759358.05258219</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.565806649691179e-15</v>
+        <v>1.190715892638875e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>97759358.05258219</v>
+        <v>14.96424517997538</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.190715892638875e-06</v>
+        <v>0.0001637670432751955</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>14.96424517997538</v>
+        <v>9.691558927598964</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001637670432751955</v>
+        <v>1.293360298538443</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.691558927598964</v>
+        <v>0.01538203480274164</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.293360298538443</v>
+        <v>2.850588130680993</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01538203480274164</v>
+        <v>0.9613829618760079</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.850588130680993</v>
+        <v>1.69670710026081</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9613829618760079</v>
+        <v>33</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.69670710026081</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1761782975312318</v>
       </c>
     </row>
@@ -8862,72 +8742,66 @@
         <v>1.67802430603533e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.09180580100759274</v>
+        <v>5.852833755507676e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.256959337850071</v>
+        <v>2.454634721489531e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.852833755507676e-07</v>
+        <v>-0.04809964421489892</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.454634721489531e-06</v>
+        <v>0.08267239492077604</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.04809964421489892</v>
+        <v>0.009145438649991067</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.08267239492077604</v>
+        <v>1.798974673989599</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.009145438649991067</v>
+        <v>1.782615666487904</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.735333289467349</v>
+        <v>4.047940198994153</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.782615666487904</v>
+        <v>1.584891657332769e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.047940198994153</v>
+        <v>97611476.86104997</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.584891657332769e-15</v>
+        <v>1.196061249758022e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>97611476.86104997</v>
+        <v>15.1008483687892</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.196061249758022e-06</v>
+        <v>0.000147680758745036</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>15.1008483687892</v>
+        <v>9.938449955503673</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.000147680758745036</v>
+        <v>1.1299834865235</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.938449955503673</v>
+        <v>0.01458684020402798</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.1299834865235</v>
+        <v>2.745996592346763</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01458684020402798</v>
+        <v>0.9607207277559938</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.745996592346763</v>
+        <v>1.699551355343544</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9607207277559938</v>
+        <v>56</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.699551355343544</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1864240967147996</v>
       </c>
     </row>
@@ -8942,72 +8816,66 @@
         <v>1.636812777490684e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.108568199131295</v>
+        <v>5.51972776121165e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.287868625299629</v>
+        <v>2.446965071630503e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5.51972776121165e-07</v>
+        <v>-0.04438973203258681</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.446965071630503e-06</v>
+        <v>0.08422757554584352</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04438973203258681</v>
+        <v>0.009061797014794114</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.08422757554584352</v>
+        <v>1.783783846172551</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.009061797014794114</v>
+        <v>1.660297608128453</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.7151919692505</v>
+        <v>4.075954712646915</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.660297608128453</v>
+        <v>1.563180235591849e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.075954712646915</v>
+        <v>98390113.23726963</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.563180235591849e-15</v>
+        <v>1.181959920320529e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>98390113.23726963</v>
+        <v>15.13254507164595</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.181959920320529e-06</v>
+        <v>0.0001450299315384362</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>15.13254507164595</v>
+        <v>9.784144296171499</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001450299315384362</v>
+        <v>1.138488950142892</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.784144296171499</v>
+        <v>0.01388363987380264</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.138488950142892</v>
+        <v>2.700123488731255</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01388363987380264</v>
+        <v>0.9597560397379007</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.700123488731255</v>
+        <v>1.69183382450669</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9597560397379007</v>
+        <v>45</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.69183382450669</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1909903793897475</v>
       </c>
     </row>
@@ -9022,72 +8890,66 @@
         <v>1.599120621345827e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.1371628544533371</v>
+        <v>5.218094944068635e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.286691261295885</v>
+        <v>2.440116444493422e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.218094944068635e-07</v>
+        <v>-0.04019330652253503</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.440116444493422e-06</v>
+        <v>0.08690743192103305</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.04019330652253503</v>
+        <v>0.009165406380283871</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.08690743192103305</v>
+        <v>1.745448143054724</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.009165406380283871</v>
+        <v>1.691922289523334</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.668137723321096</v>
+        <v>4.106959361630052</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.691922289523334</v>
+        <v>1.539667505746344e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.106959361630052</v>
+        <v>100741133.017849</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.539667505746344e-15</v>
+        <v>1.121359257470658e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>100741133.017849</v>
+        <v>15.62574044818641</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.121359257470658e-06</v>
+        <v>0.0001454756761319347</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>15.62574044818641</v>
+        <v>8.813636544815168</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001454756761319347</v>
+        <v>1.279031072368977</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.813636544815168</v>
+        <v>0.01130057803779473</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.279031072368977</v>
+        <v>2.913490057154759</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01130057803779473</v>
+        <v>0.9574066113132464</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.913490057154759</v>
+        <v>1.707613329684582</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9574066113132464</v>
+        <v>46</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.707613329684582</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1797109344103418</v>
       </c>
     </row>
@@ -9102,72 +8964,66 @@
         <v>1.564126118577748e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.1732699418300266</v>
+        <v>4.960767598953594e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.256536777817355</v>
+        <v>2.434071962858907e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4.960767598953594e-07</v>
+        <v>-0.03644368264241946</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.434071962858907e-06</v>
+        <v>0.08958196354887304</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.03644368264241946</v>
+        <v>0.009351368616967531</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.08958196354887304</v>
+        <v>1.676444476332494</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.009351368616967531</v>
+        <v>1.636430957204893</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.590015408237737</v>
+        <v>4.689743500877382</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.636430957204893</v>
+        <v>2.376348726624106e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.689743500877382</v>
+        <v>65136278.24512826</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.376348726624106e-15</v>
+        <v>1.698530363819791e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>65136278.24512826</v>
+        <v>10.08221730542132</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.698530363819791e-06</v>
+        <v>0.0001463324995874394</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>10.08221730542132</v>
+        <v>8.184665120789742</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001463324995874394</v>
+        <v>1.515438128895154</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.184665120789742</v>
+        <v>0.009802630227819895</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.515438128895154</v>
+        <v>3.037622147172019</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.009802630227819895</v>
+        <v>0.9552065877547641</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.037622147172019</v>
+        <v>1.823146687159179</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9552065877547641</v>
+        <v>46</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.823146687159179</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1860704622853568</v>
       </c>
     </row>
@@ -9182,72 +9038,66 @@
         <v>1.531834359026789e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.2145721930970011</v>
+        <v>4.896890607602009e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.204246803259222</v>
+        <v>2.428624974564437e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>4.896890607602009e-07</v>
+        <v>-0.03418213582408771</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.428624974564437e-06</v>
+        <v>0.09106319370989217</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.03418213582408771</v>
+        <v>0.009459958659728615</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.09106319370989217</v>
+        <v>1.667279657562704</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.009459958659728615</v>
+        <v>1.592981116766937</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.576978122032642</v>
+        <v>3.888453718463126</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.592981116766937</v>
+        <v>3.555323452788326e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.888453718463126</v>
+        <v>44041593.03129181</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.555323452788326e-15</v>
+        <v>2.510993668125379e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>44041593.03129181</v>
+        <v>6.896125503044504</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.510993668125379e-06</v>
+        <v>0.0001329204432681734</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>6.896125503044504</v>
+        <v>8.668828892387461</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001329204432681734</v>
+        <v>1.458820133555978</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.668828892387461</v>
+        <v>0.009988784474041303</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.458820133555978</v>
+        <v>3.077700282059614</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.009988784474041303</v>
+        <v>0.9552419148873851</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.077700282059614</v>
+        <v>1.789836498313059</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9552419148873851</v>
+        <v>41</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.789836498313059</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2028093741789724</v>
       </c>
     </row>
@@ -9262,72 +9112,66 @@
         <v>1.502406945649038e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.2613883598059067</v>
+        <v>4.896890607602009e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.135111731405317</v>
+        <v>2.423534638616349e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>4.896890607602009e-07</v>
+        <v>-0.03309392432450058</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.423534638616349e-06</v>
+        <v>0.09215806782625414</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.03309392432450058</v>
+        <v>0.009587600515579187</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.09215806782625414</v>
+        <v>1.638262562791533</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.009587600515579187</v>
+        <v>1.565707936831254</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.542919930293551</v>
+        <v>3.724007891636554</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.565707936831254</v>
+        <v>3.876250192898041e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.724007891636554</v>
+        <v>40692929.15232836</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.876250192898041e-15</v>
+        <v>2.693476376258319e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>40692929.15232836</v>
+        <v>6.418738834137516</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.693476376258319e-06</v>
+        <v>0.0001280877714866899</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>6.418738834137516</v>
+        <v>8.793624165713789</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001280877714866899</v>
+        <v>1.314001151708119</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.793624165713789</v>
+        <v>0.009904748902129359</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.314001151708119</v>
+        <v>3.001736599840788</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.009904748902129359</v>
+        <v>0.9540112355038975</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.001736599840788</v>
+        <v>1.80898440273894</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9540112355038975</v>
+        <v>41</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.80898440273894</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2006135276707027</v>
       </c>
     </row>
@@ -9342,72 +9186,66 @@
         <v>1.475372035254726e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.3135805194324185</v>
+        <v>4.896890607602009e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.051812511657298</v>
+        <v>2.418639595670324e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>4.896890607602009e-07</v>
+        <v>-0.03278510433615596</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.418639595670324e-06</v>
+        <v>0.09352566186073759</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.03278510433615596</v>
+        <v>0.009821665993261331</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.09352566186073759</v>
+        <v>1.638651742093038</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.009821665993261331</v>
+        <v>1.553378186418065</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.538528337168373</v>
+        <v>3.74002104042736</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.553378186418065</v>
+        <v>3.843128405654292e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.74002104042736</v>
+        <v>42636301.39589784</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.843128405654292e-15</v>
+        <v>2.58307863458283e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>42636301.39589784</v>
+        <v>6.986247100759571</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>2.58307863458283e-06</v>
+        <v>0.0001277295299373693</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>6.986247100759571</v>
+        <v>8.650007341990079</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001277295299373693</v>
+        <v>1.279408497045739</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.650007341990079</v>
+        <v>0.009557058977494388</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.279408497045739</v>
+        <v>2.924785075892375</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.009557058977494388</v>
+        <v>0.9527345210316285</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.924785075892375</v>
+        <v>1.82005412588204</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9527345210316285</v>
+        <v>44</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.82005412588204</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2019962029043585</v>
       </c>
     </row>
@@ -9422,72 +9260,66 @@
         <v>1.449222800455996e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.3693711773929336</v>
+        <v>4.896890607602009e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.9549224986854346</v>
+        <v>2.413830633728581e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>4.896890607602009e-07</v>
+        <v>-0.03309057760313314</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.413830633728581e-06</v>
+        <v>0.09518676849726765</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.03309057760313314</v>
+        <v>0.01015557448472879</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.09518676849726765</v>
+        <v>1.629914572666543</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01015557448472879</v>
+        <v>1.533401659393194</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.531681808336124</v>
+        <v>3.785627117098799</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.533401659393194</v>
+        <v>3.751088566583956e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.785627117098799</v>
+        <v>44950920.7570425</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.751088566583956e-15</v>
+        <v>2.453326840932548e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>44950920.7570425</v>
+        <v>7.57939433000965</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.453326840932548e-06</v>
+        <v>0.0001280458373028126</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>7.57939433000965</v>
+        <v>8.170199117704978</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001280458373028126</v>
+        <v>1.289234153049434</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.170199117704978</v>
+        <v>0.008547335402416253</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.289234153049434</v>
+        <v>2.956190533195941</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.008547335402416253</v>
+        <v>0.9538434683549766</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.956190533195941</v>
+        <v>1.801325044046239</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9538434683549766</v>
+        <v>47</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.801325044046239</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1998924372545225</v>
       </c>
     </row>
@@ -9502,72 +9334,66 @@
         <v>1.422189461381696e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.4268609481767726</v>
+        <v>4.896890607602009e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.8434235375882961</v>
+        <v>2.409006601021775e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>4.896890607602009e-07</v>
+        <v>-0.03430333182734367</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.409006601021775e-06</v>
+        <v>0.09691148177085082</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.03430333182734367</v>
+        <v>0.01056850254190561</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.09691148177085082</v>
+        <v>1.626671160310048</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01056850254190561</v>
+        <v>1.52513370752456</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.523382384290255</v>
+        <v>3.854336332786273</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.52513370752456</v>
+        <v>3.618543254336239e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.854336332786273</v>
+        <v>47198483.08243332</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3.618543254336239e-15</v>
+        <v>2.335437173984293e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>47198483.08243332</v>
+        <v>8.061017247462265</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.335437173984293e-06</v>
+        <v>0.00013419113236027</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>8.061017247462265</v>
+        <v>8.223628060863863</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.00013419113236027</v>
+        <v>1.406296662026032</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.223628060863863</v>
+        <v>0.009075085747217706</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.406296662026032</v>
+        <v>2.928437628211654</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.009075085747217706</v>
+        <v>0.9528223021547636</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.928437628211654</v>
+        <v>1.822266014937955</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9528223021547636</v>
+        <v>47</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.822266014937955</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.2014833985810584</v>
       </c>
     </row>
@@ -9582,72 +9408,66 @@
         <v>1.392697979172497e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.4846062388693102</v>
+        <v>4.896890607602009e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.7170404146282561</v>
+        <v>2.404010895549104e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>4.896890607602009e-07</v>
+        <v>-0.03694538626206292</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.404010895549104e-06</v>
+        <v>0.09838897571723806</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.03694538626206292</v>
+        <v>0.0110446880347059</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.09838897571723806</v>
+        <v>1.626679152992239</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.0110446880347059</v>
+        <v>1.499297984755696</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.520911280779133</v>
+        <v>4.061621078000314</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.499297984755696</v>
+        <v>3.258623444267399e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.061621078000314</v>
+        <v>52207464.17987242</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3.258623444267399e-15</v>
+        <v>2.112293043421201e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>52207464.17987242</v>
+        <v>8.881767003567624</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.112293043421201e-06</v>
+        <v>0.0001406207748668595</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>8.881767003567624</v>
+        <v>8.659251056454925</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001406207748668595</v>
+        <v>1.507245165795743</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.659251056454925</v>
+        <v>0.01054411537166675</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.507245165795743</v>
+        <v>2.915480804442901</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01054411537166675</v>
+        <v>0.9510990665144103</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.915480804442901</v>
+        <v>1.837200655578117</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9510990665144103</v>
+        <v>47</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.837200655578117</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.2070922590707465</v>
       </c>
     </row>
@@ -9662,72 +9482,66 @@
         <v>1.357698287241034e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.537291321083858</v>
+        <v>4.896890607602009e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.5813662381453262</v>
+        <v>2.3986406353775e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>4.896890607602009e-07</v>
+        <v>-0.04146605868894182</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.3986406353775e-06</v>
+        <v>0.09830963524366759</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.04146605868894182</v>
+        <v>0.01138190852860011</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.09830963524366759</v>
+        <v>1.634283651171768</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01138190852860011</v>
+        <v>1.481581184794868</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.530147318071292</v>
+        <v>4.556471482755071</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.481581184794868</v>
+        <v>2.589260064680589e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.556471482755071</v>
+        <v>66475953.86632448</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>2.589260064680589e-15</v>
+        <v>1.662587005882455e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>66475953.86632448</v>
+        <v>11.44207601293316</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.662587005882455e-06</v>
+        <v>0.0001295732467272903</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>11.44207601293316</v>
+        <v>8.080529971945563</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001295732467272903</v>
+        <v>1.438493256682503</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.080529971945563</v>
+        <v>0.008460480561730115</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.438493256682503</v>
+        <v>3.028168503409471</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.008460480561730115</v>
+        <v>0.9481128299226351</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.028168503409471</v>
+        <v>1.810201697442737</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9481128299226351</v>
+        <v>56</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.810201697442737</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2087453756778663</v>
       </c>
     </row>
@@ -9742,72 +9556,66 @@
         <v>1.31270475584046e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.5708827294810151</v>
+        <v>4.896890607602009e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.4663172362129075</v>
+        <v>2.392725570009391e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>4.896890607602009e-07</v>
+        <v>-0.04697652017173101</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.392725570009391e-06</v>
+        <v>0.09774704230270598</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.04697652017173101</v>
+        <v>0.01176036359974951</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.09774704230270598</v>
+        <v>1.658751482143106</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01176036359974951</v>
+        <v>1.61950979285472</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.559069543549907</v>
+        <v>4.509734267543951</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.61950979285472</v>
+        <v>2.169972898101619e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.509734267543951</v>
+        <v>77207913.54216318</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.169972898101619e-15</v>
+        <v>1.438886698161895e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>77207913.54216318</v>
+        <v>12.93534279627487</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.438886698161895e-06</v>
+        <v>0.0001213065609759369</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>12.93534279627487</v>
+        <v>7.958453859750151</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001213065609759369</v>
+        <v>1.30646596580912</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>7.958453859750151</v>
+        <v>0.007683192177174875</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.30646596580912</v>
+        <v>3.010720165538347</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.007683192177174875</v>
+        <v>0.9485204324797956</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.010720165538347</v>
+        <v>1.782867874547724</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9485204324797956</v>
+        <v>56</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.782867874547724</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2190475138494873</v>
       </c>
     </row>
@@ -9822,72 +9630,66 @@
         <v>1.258341342163966e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.5752183051913266</v>
+        <v>4.889137203795494e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.4122632223270899</v>
+        <v>2.386424160693959e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>4.889137203795494e-07</v>
+        <v>-0.05057349665909552</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.386424160693959e-06</v>
+        <v>0.101110762430328</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.05057349665909552</v>
+        <v>0.01278118303549583</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.101110762430328</v>
+        <v>1.672507629806973</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01278118303549583</v>
+        <v>1.642936442231894</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.574623263727235</v>
+        <v>4.328184340653515</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.642936442231894</v>
+        <v>2.35583416234436e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.328184340653515</v>
+        <v>68988066.55116801</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.35583416234436e-15</v>
+        <v>1.61578595872335e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>68988066.55116801</v>
+        <v>11.2122471571615</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.61578595872335e-06</v>
+        <v>0.0001233422357633469</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>11.2122471571615</v>
+        <v>7.90372216419106</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001233422357633469</v>
+        <v>1.331645252761265</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>7.90372216419106</v>
+        <v>0.007705044423676878</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.331645252761265</v>
+        <v>2.962293872455211</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.007705044423676878</v>
+        <v>0.9488164701158165</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.962293872455211</v>
+        <v>1.797872476608427</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9488164701158165</v>
+        <v>55</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.797872476608427</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2240310285855884</v>
       </c>
     </row>
@@ -9902,72 +9704,66 @@
         <v>1.200518303024659e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.5583402176397568</v>
+        <v>4.766272300639278e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.412085226981187</v>
+        <v>2.38012332904369e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>4.766272300639278e-07</v>
+        <v>-0.05154187976829681</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.38012332904369e-06</v>
+        <v>0.1058564341355632</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.05154187976829681</v>
+        <v>0.01386112462851616</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1058564341355632</v>
+        <v>1.675072326312102</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.01386112462851616</v>
+        <v>1.714932374233621</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.580273414274687</v>
+        <v>4.095869202455655</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.714932374233621</v>
+        <v>2.656071284808114e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.095869202455655</v>
+        <v>61091573.49310696</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>2.656071284808114e-15</v>
+        <v>1.823829749924528e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>61091573.49310696</v>
+        <v>9.912937062310187</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.823829749924528e-06</v>
+        <v>0.0001320937744254008</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>9.912937062310187</v>
+        <v>8.112118478500699</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001320937744254008</v>
+        <v>1.41723195550904</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.112118478500699</v>
+        <v>0.008692624503175121</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.41723195550904</v>
+        <v>2.939359585456658</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.008692624503175121</v>
+        <v>0.9494127483900213</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.939359585456658</v>
+        <v>1.801002824109533</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9494127483900213</v>
+        <v>55</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.801002824109533</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.2128073832921741</v>
       </c>
     </row>
@@ -9982,72 +9778,66 @@
         <v>1.143485552160791e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.5319262463068438</v>
+        <v>4.569322088163879e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.4340427398572775</v>
+        <v>2.374124000229375e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>4.569322088163879e-07</v>
+        <v>-0.05065347384249272</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.374124000229375e-06</v>
+        <v>0.1106378217218761</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.05065347384249272</v>
+        <v>0.01480450808857235</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1106378217218761</v>
+        <v>1.63325038899338</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.01480450808857235</v>
+        <v>1.640170148782306</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.540778494102315</v>
+        <v>3.977119156611032</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.640170148782306</v>
+        <v>2.817050806659656e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.977119156611032</v>
+        <v>58320336.13272431</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>2.817050806659656e-15</v>
+        <v>1.883361705220237e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>58320336.13272431</v>
+        <v>9.581526752628681</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>1.883361705220237e-06</v>
+        <v>0.0001436839271133528</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>9.581526752628681</v>
+        <v>8.485321387975025</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001436839271133528</v>
+        <v>1.373473239412506</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.485321387975025</v>
+        <v>0.01034534032177043</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.373473239412506</v>
+        <v>2.844398492895724</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01034534032177043</v>
+        <v>0.9491510504562423</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.844398492895724</v>
+        <v>1.806341116554656</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9491510504562423</v>
+        <v>42</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.806341116554656</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.1968406956997902</v>
       </c>
     </row>
@@ -10062,72 +9852,66 @@
         <v>1.08904994981859e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.502204290822002</v>
+        <v>4.357281175880092e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.4581454444972946</v>
+        <v>2.368532443774369e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>4.357281175880092e-07</v>
+        <v>-0.04970637330203907</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.368532443774369e-06</v>
+        <v>0.1150247140613332</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.04970637330203907</v>
+        <v>0.01569932234944748</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1150247140613332</v>
+        <v>1.607753616343472</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.01569932234944748</v>
+        <v>1.626666487383408</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.510603313600322</v>
+        <v>3.795787617648556</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.626666487383408</v>
+        <v>3.09263079449543e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.795787617648556</v>
+        <v>53198877.85894399</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>3.09263079449543e-15</v>
+        <v>2.050334516149465e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>53198877.85894399</v>
+        <v>8.752518136553322</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>2.050334516149465e-06</v>
+        <v>0.0001489104921157111</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>8.752518136553322</v>
+        <v>8.735684593961315</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001489104921157111</v>
+        <v>1.280583357339628</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>8.735684593961315</v>
+        <v>0.01136368507119687</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.280583357339628</v>
+        <v>2.769136208463995</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01136368507119687</v>
+        <v>0.9474594184019076</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.769136208463995</v>
+        <v>1.84868972453891</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9474594184019076</v>
+        <v>19</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.84868972453891</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1946259118655467</v>
       </c>
     </row>
@@ -10142,72 +9926,66 @@
         <v>1.038039400509098e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.4719335172956672</v>
+        <v>4.160556541522364e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.48157911475879</v>
+        <v>2.363246983355268e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>4.160556541522364e-07</v>
+        <v>-0.04994511816017644</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.363246983355268e-06</v>
+        <v>0.1193645804279802</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.04994511816017644</v>
+        <v>0.01674029570464235</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1193645804279802</v>
+        <v>1.612390203619129</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.01674029570464235</v>
+        <v>1.514667148846915</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.518737406753526</v>
+        <v>3.788189807841897</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.514667148846915</v>
+        <v>3.105048748956852e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.788189807841897</v>
+        <v>53138805.40529741</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3.105048748956852e-15</v>
+        <v>2.054961321980849e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>53138805.40529741</v>
+        <v>8.767827500916537</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>2.054961321980849e-06</v>
+        <v>0.0001357173206868471</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>8.767827500916537</v>
+        <v>8.078785715354714</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001357173206868471</v>
+        <v>1.247003809806499</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.078785715354714</v>
+        <v>0.008857832326152098</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.247003809806499</v>
+        <v>2.973364977951241</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.008857832326152098</v>
+        <v>0.9479047259399596</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.973364977951241</v>
+        <v>1.825323501710686</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9479047259399596</v>
+        <v>19</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.825323501710686</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2003735033786131</v>
       </c>
     </row>
@@ -10222,72 +10000,66 @@
         <v>9.902638622970749e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.4400045793158597</v>
+        <v>3.99543547026304e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.5149087450637611</v>
+        <v>2.358124799317477e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>3.99543547026304e-07</v>
+        <v>-0.05127734096347378</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.358124799317477e-06</v>
+        <v>0.1244081143858981</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.05127734096347378</v>
+        <v>0.01810465791058877</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1244081143858981</v>
+        <v>1.65525430424773</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.01810465791058877</v>
+        <v>1.720822466419094</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.565648716041525</v>
+        <v>4.0224875093098</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.720822466419094</v>
+        <v>2.753863926089756e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.0224875093098</v>
+        <v>59334519.17397935</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.753863926089756e-15</v>
+        <v>1.886983184922746e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>59334519.17397935</v>
+        <v>9.695212486292739</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.886983184922746e-06</v>
+        <v>0.0001258589894435393</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>9.695212486292739</v>
+        <v>7.444626888641424</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001258589894435393</v>
+        <v>1.387169714968642</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>7.444626888641424</v>
+        <v>0.006975416005130262</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.387169714968642</v>
+        <v>3.122295402202087</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.006975416005130262</v>
+        <v>0.9506061703808656</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.122295402202087</v>
+        <v>1.785286323708472</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9506061703808656</v>
+        <v>18</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.785286323708472</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.2016503418070286</v>
       </c>
     </row>
@@ -10302,72 +10074,66 @@
         <v>9.452842104475358e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.4031074662338412</v>
+        <v>3.842944294674854e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-0.5736789804272049</v>
+        <v>2.353075053209192e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>3.842944294674854e-07</v>
+        <v>-0.05318474884937389</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2.353075053209192e-06</v>
+        <v>0.1299528528728923</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.05318474884937389</v>
+        <v>0.01971382432388005</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.1299528528728923</v>
+        <v>1.710610579177585</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.01971382432388005</v>
+        <v>1.50508518523639</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.623130800492196</v>
+        <v>4.336768289754072</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.50508518523639</v>
+        <v>2.369187583964681e-15</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.336768289754072</v>
+        <v>69779816.59837936</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>2.369187583964681e-15</v>
+        <v>1.644302598795799e-06</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>69779816.59837936</v>
+        <v>11.53610221198728</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>1.644302598795799e-06</v>
+        <v>0.0001267018424484903</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>11.53610221198728</v>
+        <v>8.254996451292586</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001267018424484903</v>
+        <v>1.255438032523078</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>8.254996451292586</v>
+        <v>0.008634092797845581</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.255438032523078</v>
+        <v>2.95281913877975</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.008634092797845581</v>
+        <v>0.9539641070284303</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>2.95281913877975</v>
+        <v>1.771168491815634</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9539641070284303</v>
+        <v>18</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.771168491815634</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.2117027403538842</v>
       </c>
     </row>
@@ -10382,72 +10148,66 @@
         <v>9.035369291024515e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.3614251674726072</v>
+        <v>3.680895823850506e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-0.6625485220457756</v>
+        <v>2.348076172840849e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>3.680895823850506e-07</v>
+        <v>-0.05494258858527086</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2.348076172840849e-06</v>
+        <v>0.1354240706173657</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.05494258858527086</v>
+        <v>0.02135521697082697</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.1354240706173657</v>
+        <v>1.714484253301684</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.02135521697082697</v>
+        <v>1.561972867891937</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.628991584521305</v>
+        <v>4.206223236074095</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.561972867891937</v>
+        <v>1.642229615378967e-15</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>4.206223236074095</v>
+        <v>98720061.74622542</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>1.642229615378967e-15</v>
+        <v>1.160373077928324e-06</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>98720061.74622542</v>
+        <v>16.00459602196896</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>1.160373077928324e-06</v>
+        <v>0.0001359388194812847</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>16.00459602196896</v>
+        <v>9.09947790227306</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001359388194812847</v>
+        <v>1.25435276269609</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>9.09947790227306</v>
+        <v>0.01125580196335471</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.25435276269609</v>
+        <v>2.810393689295975</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.01125580196335471</v>
+        <v>0.9540055923687956</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>2.810393689295975</v>
+        <v>1.756468718822049</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9540055923687956</v>
+        <v>25</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.756468718822049</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.2008386000317987</v>
       </c>
     </row>
@@ -10462,72 +10222,66 @@
         <v>8.660767283166327e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.3204893108900625</v>
+        <v>3.492656269191826e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.7676935284961925</v>
+        <v>2.343174467047357e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>3.492656269191826e-07</v>
+        <v>-0.05573391665141963</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>2.343174467047357e-06</v>
+        <v>0.1400066196317316</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.05573391665141963</v>
+        <v>0.02270432914858139</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.1400066196317316</v>
+        <v>1.743523398088257</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.02270432914858139</v>
+        <v>1.744814031406321</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.665893626934455</v>
+        <v>4.333993240355353</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.744814031406321</v>
+        <v>1.487505191175702e-15</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>4.333993240355353</v>
+        <v>108864482.4394125</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>1.487505191175702e-15</v>
+        <v>1.057639792840107e-06</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>108864482.4394125</v>
+        <v>17.62913138408356</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>1.057639792840107e-06</v>
+        <v>0.0001411476129685289</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>17.62913138408356</v>
+        <v>8.995120162067479</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001411476129685289</v>
+        <v>1.257819259210507</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>8.995120162067479</v>
+        <v>0.01142056201700802</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.257819259210507</v>
+        <v>2.907413783285433</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.01142056201700802</v>
+        <v>0.9547749969109803</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>2.907413783285433</v>
+        <v>1.745256138217767</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9547749969109803</v>
+        <v>25</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.745256138217767</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.1864748791988867</v>
       </c>
     </row>
@@ -10542,72 +10296,66 @@
         <v>8.338227821120894e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.2894013991166561</v>
+        <v>3.288195699684613e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.8620787830277097</v>
+        <v>2.338453524670906e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>3.288195699684613e-07</v>
+        <v>-0.05521703393305928</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2.338453524670906e-06</v>
+        <v>0.1434275190930182</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.05521703393305928</v>
+        <v>0.02361662771840018</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.1434275190930182</v>
+        <v>1.752330737759949</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.02361662771840018</v>
+        <v>1.710802905873741</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.677282704693813</v>
+        <v>4.170193727260697</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.710802905873741</v>
+        <v>1.606654474613635e-15</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.170193727260697</v>
+        <v>97653107.01078591</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>1.606654474613635e-15</v>
+        <v>1.178131217701584e-06</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>97653107.01078591</v>
+        <v>15.32126482457416</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>1.178131217701584e-06</v>
+        <v>0.0001647214644389921</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>15.32126482457416</v>
+        <v>8.81974994867565</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001647214644389921</v>
+        <v>1.461559310174644</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>8.81974994867565</v>
+        <v>0.01281335148973252</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.461559310174644</v>
+        <v>2.924014366012353</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.01281335148973252</v>
+        <v>0.956151034383335</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>2.924014366012353</v>
+        <v>1.754133861903955</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.956151034383335</v>
+        <v>22</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.754133861903955</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.1677074799973871</v>
       </c>
     </row>
@@ -10622,72 +10370,66 @@
         <v>8.065392478619713e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.2744116619423094</v>
+        <v>3.090293648651062e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.9262369385300708</v>
+        <v>2.333991619961454e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>3.090293648651062e-07</v>
+        <v>-0.05346110153473929</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>2.333991619961454e-06</v>
+        <v>0.1462916407298801</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.05346110153473929</v>
+        <v>0.02425612560238259</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.1462916407298801</v>
+        <v>1.762882418574727</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.02425612560238259</v>
+        <v>1.761755544186558</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.694023137544711</v>
+        <v>4.008564540954725</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.761755544186558</v>
+        <v>1.738830255808156e-15</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.008564540954725</v>
+        <v>87031986.6662886</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>1.738830255808156e-15</v>
+        <v>1.326732810244794e-06</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>87031986.6662886</v>
+        <v>13.17088575795434</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>1.326732810244794e-06</v>
+        <v>0.0001649718359238259</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>13.17088575795434</v>
+        <v>9.140457051688216</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001649718359238259</v>
+        <v>1.392682569002942</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>9.140457051688216</v>
+        <v>0.01378305954279787</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.392682569002942</v>
+        <v>2.899720214821672</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.01378305954279787</v>
+        <v>0.9557636715581435</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>2.899720214821672</v>
+        <v>1.734582627301582</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9557636715581435</v>
+        <v>19</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.734582627301582</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.1665761658636264</v>
       </c>
     </row>
@@ -10702,72 +10444,66 @@
         <v>7.831028902490417e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.2768846998950738</v>
+        <v>2.91243479521991e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-0.9544085149173238</v>
+        <v>2.329838065264409e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>2.91243479521991e-07</v>
+        <v>-0.05110359346949363</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>2.329838065264409e-06</v>
+        <v>0.1492032704006353</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.05110359346949363</v>
+        <v>0.02487061885679696</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.1492032704006353</v>
+        <v>1.747280566989486</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.02487061885679696</v>
+        <v>1.675946955474461</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.67440699975896</v>
+        <v>4.13736190022157</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.675946955474461</v>
+        <v>1.632254699206223e-15</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>4.13736190022157</v>
+        <v>92783863.73564914</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1.632254699206223e-15</v>
+        <v>1.238859949801477e-06</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>92783863.73564914</v>
+        <v>14.05182830945787</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>1.238859949801477e-06</v>
+        <v>0.0001444197713483463</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>14.05182830945787</v>
+        <v>9.850098577940908</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001444197713483463</v>
+        <v>1.1415900813068</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>9.850098577940908</v>
+        <v>0.01401224772814096</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.1415900813068</v>
+        <v>2.790620944288587</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.01401224772814096</v>
+        <v>0.9560651683036989</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>2.790620944288587</v>
+        <v>1.73383600542277</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9560651683036989</v>
+        <v>24</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.73383600542277</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.1864800159815751</v>
       </c>
     </row>
@@ -11144,7 +10880,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.516678383417384</v>
+        <v>1.592274202987563</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.736035077943371</v>
@@ -11233,7 +10969,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.523897853529727</v>
+        <v>1.596534751888767</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.357568274155923</v>
@@ -11322,7 +11058,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.575341110760183</v>
+        <v>1.657184012292862</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.724879587906865</v>
@@ -11411,7 +11147,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.619012471922479</v>
+        <v>1.704337989352588</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.354435228441978</v>
@@ -11500,7 +11236,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.606049211423774</v>
+        <v>1.693279672349537</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.583932076336573</v>
@@ -11589,7 +11325,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.652854553298072</v>
+        <v>1.745635779522533</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.410035147351162</v>
@@ -11678,7 +11414,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.651206454774183</v>
+        <v>1.737347240342629</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.491675273551502</v>
@@ -11767,7 +11503,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.647177427859643</v>
+        <v>1.727977758670144</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.651028878416045</v>
@@ -11856,7 +11592,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.64578420700667</v>
+        <v>1.730779343836713</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.459932677938216</v>
@@ -11945,7 +11681,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.67799851192841</v>
+        <v>1.761137497048443</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.628013855100577</v>
@@ -12034,7 +11770,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.677224515829275</v>
+        <v>1.762371348267102</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.701496506912947</v>
@@ -12123,7 +11859,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.644624930609991</v>
+        <v>1.722298849850904</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.779059721793953</v>
@@ -12212,7 +11948,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.668188886715468</v>
+        <v>1.751292386821419</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.705772609037169</v>
@@ -12301,7 +12037,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.668440068769633</v>
+        <v>1.751481554033274</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.694380971555352</v>
@@ -12390,7 +12126,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.633865891970239</v>
+        <v>1.713353879996981</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.710687899915914</v>
@@ -12479,7 +12215,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.6270777191348</v>
+        <v>1.710316698740514</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.427454803749135</v>
@@ -12568,7 +12304,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.638790454550358</v>
+        <v>1.718325004888322</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.776205435059785</v>
@@ -12657,7 +12393,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.608796563836268</v>
+        <v>1.687215172578996</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.777721041802459</v>
@@ -12746,7 +12482,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.576256423741278</v>
+        <v>1.653954131985128</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.642201543882817</v>
@@ -12835,7 +12571,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.604827975432026</v>
+        <v>1.68162788842764</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.656951458341147</v>
@@ -12924,7 +12660,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.604483891281925</v>
+        <v>1.677888284359481</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.725021293429998</v>
@@ -13013,7 +12749,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.62782170239766</v>
+        <v>1.704599198324597</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.562020133637409</v>
@@ -13102,7 +12838,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.637470138606267</v>
+        <v>1.721902507793244</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.517925262914381</v>
@@ -13191,7 +12927,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.637010792970667</v>
+        <v>1.719785861976072</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.73836365681311</v>
@@ -13280,7 +13016,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.619270010876869</v>
+        <v>1.699950016157718</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.37256354144189</v>
@@ -13369,7 +13105,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.604794471433916</v>
+        <v>1.684613440413341</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.556818636143489</v>
@@ -13458,7 +13194,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.633253792107132</v>
+        <v>1.714695316565096</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.408148367355906</v>
@@ -13547,7 +13283,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.609413168808299</v>
+        <v>1.685497374914855</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.603754692622214</v>
@@ -13636,7 +13372,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.601156151438247</v>
+        <v>1.675359940742807</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.516665866725312</v>
@@ -13725,7 +13461,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.632004665860071</v>
+        <v>1.700941731748889</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.568568439502833</v>
@@ -13814,7 +13550,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.630339478588812</v>
+        <v>1.707073963166353</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.682134188942054</v>
@@ -13903,7 +13639,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.645518407194336</v>
+        <v>1.724134233541933</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.479520190444839</v>
@@ -13992,7 +13728,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.670712531602908</v>
+        <v>1.748217311506026</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.752303599062159</v>
@@ -14081,7 +13817,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.680633387815044</v>
+        <v>1.760553388116383</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.72982579125935</v>
@@ -14170,7 +13906,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.683652018705593</v>
+        <v>1.765563993098823</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.706381307367748</v>
@@ -14259,7 +13995,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.688284019399783</v>
+        <v>1.769569178025772</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.836917087042175</v>
@@ -14348,7 +14084,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.645498370622521</v>
+        <v>1.724076551703351</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.75603263255887</v>
@@ -14437,7 +14173,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.673322688161923</v>
+        <v>1.750649901560215</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.664854581354998</v>
@@ -14526,7 +14262,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.672401358748303</v>
+        <v>1.742256068886488</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.473903551912757</v>
@@ -14615,7 +14351,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.673953078901531</v>
+        <v>1.752449831289456</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.590733466227916</v>
@@ -14704,7 +14440,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.708489749938833</v>
+        <v>1.788570937663513</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.642311138709521</v>
@@ -14793,7 +14529,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.696295932156925</v>
+        <v>1.768826761099241</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.578477416235892</v>
@@ -14882,7 +14618,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.722449695067747</v>
+        <v>1.80758985368191</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.598105887345822</v>
@@ -14971,7 +14707,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.72462146281857</v>
+        <v>1.81090322739428</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.864805729616319</v>
@@ -15060,7 +14796,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.716274149668034</v>
+        <v>1.799978181387355</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.634593338225579</v>
@@ -15149,7 +14885,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.714467715308233</v>
+        <v>1.797255948095635</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.899122691226024</v>
@@ -15238,7 +14974,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.710880167973645</v>
+        <v>1.794602535424859</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.880006162203848</v>
@@ -15327,7 +15063,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.695431325092556</v>
+        <v>1.776751903982249</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.406334819806808</v>
@@ -15416,7 +15152,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.704831211710929</v>
+        <v>1.789303463822483</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.952069450978222</v>
@@ -15505,7 +15241,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.690606180158067</v>
+        <v>1.766946044937368</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.907339376620071</v>
@@ -15594,7 +15330,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.678072115507699</v>
+        <v>1.762652546202831</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.980656844569147</v>
@@ -15683,7 +15419,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.713560429398152</v>
+        <v>1.802039134993999</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.834985647696924</v>
@@ -15772,7 +15508,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.721544498656477</v>
+        <v>1.810161179949212</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.823909840660881</v>
@@ -15861,7 +15597,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.728554797458962</v>
+        <v>1.815539477331112</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.543926283134026</v>
@@ -15950,7 +15686,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.73250996311031</v>
+        <v>1.817966594324701</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.762911600406847</v>
@@ -16039,7 +15775,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.704077198946859</v>
+        <v>1.788489946732457</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.725413790530791</v>
@@ -16128,7 +15864,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.72919130210518</v>
+        <v>1.806489277918401</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.512140735397831</v>
@@ -16217,7 +15953,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.699062708725602</v>
+        <v>1.781790166489384</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.696954225049976</v>
@@ -16306,7 +16042,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.691703662336477</v>
+        <v>1.771384654256552</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.726091414876707</v>
@@ -16395,7 +16131,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.691041834545607</v>
+        <v>1.771744359417257</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.825652597280484</v>
@@ -16484,7 +16220,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.699603458728622</v>
+        <v>1.78417263843024</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.705676079750439</v>
@@ -16573,7 +16309,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.675329868212365</v>
+        <v>1.750351786266048</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.730153590476794</v>
@@ -16662,7 +16398,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.703386867423133</v>
+        <v>1.787507404318014</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.754099939799678</v>
@@ -16751,7 +16487,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.709998018893802</v>
+        <v>1.794425618890683</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.767880047274511</v>
@@ -16840,7 +16576,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.716007318681306</v>
+        <v>1.790333639439134</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.695545663559774</v>
@@ -16929,7 +16665,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.717603792738092</v>
+        <v>1.798672325769935</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.87281649712838</v>
@@ -17018,7 +16754,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.715041215621349</v>
+        <v>1.795317040797884</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.858350676880573</v>
@@ -17107,7 +16843,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.684540373680007</v>
+        <v>1.76126414304699</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.627232733079193</v>
@@ -17196,7 +16932,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.708192464673412</v>
+        <v>1.787693521855349</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.742578409173445</v>
@@ -17285,7 +17021,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.709198346122405</v>
+        <v>1.788896056111167</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.768072901209305</v>
@@ -17374,7 +17110,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.707870334190078</v>
+        <v>1.787030375049016</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.850043365957414</v>
@@ -17463,7 +17199,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.732055019404504</v>
+        <v>1.809939918639</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.925800708403557</v>
@@ -17552,7 +17288,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.7372855063798</v>
+        <v>1.81516379627795</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.811092295939356</v>
@@ -17641,7 +17377,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.713387570316438</v>
+        <v>1.796040159152834</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.662690853105243</v>
@@ -17730,7 +17466,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.745734712770756</v>
+        <v>1.825463365202583</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.700248438392991</v>
@@ -17819,7 +17555,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.708323546096904</v>
+        <v>1.78730288959011</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.599044427484378</v>
@@ -17908,7 +17644,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.740379526380907</v>
+        <v>1.821701443836525</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.495433542548671</v>
@@ -17997,7 +17733,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.718971409639967</v>
+        <v>1.791847208320279</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.685940399081678</v>
@@ -18086,7 +17822,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.690836458176026</v>
+        <v>1.768796192816803</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.72442989344125</v>
@@ -18175,7 +17911,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.687391012155249</v>
+        <v>1.769034196362453</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.584376815964743</v>
@@ -18264,7 +18000,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.676435469323348</v>
+        <v>1.746189140094231</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.65892903171551</v>
@@ -18353,7 +18089,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.644400021533988</v>
+        <v>1.726123544949194</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.678928289595641</v>
@@ -18442,7 +18178,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.658253582846861</v>
+        <v>1.740260676769327</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.794017102246301</v>
@@ -18531,7 +18267,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.634742026089651</v>
+        <v>1.713874550896793</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.688152423769474</v>
@@ -18620,7 +18356,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.600215257211466</v>
+        <v>1.67917136196475</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.863509825228226</v>
@@ -18709,7 +18445,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.623236083444528</v>
+        <v>1.703392320556065</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.639030454165188</v>
@@ -18798,7 +18534,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.599237816268493</v>
+        <v>1.668637331927081</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.630389489147051</v>
@@ -19084,7 +18820,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.557179588399681</v>
+        <v>1.631936223550126</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.175721083304221</v>
@@ -19173,7 +18909,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.560585157183862</v>
+        <v>1.631035310292138</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.105004461466924</v>
@@ -19262,7 +18998,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.550344465792038</v>
+        <v>1.624223024026599</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.144979805258674</v>
@@ -19351,7 +19087,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.573484770948568</v>
+        <v>1.649678960043784</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.037070634506956</v>
@@ -19440,7 +19176,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.581806456181329</v>
+        <v>1.659986198463191</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.14598637044485</v>
@@ -19529,7 +19265,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.599262954507206</v>
+        <v>1.678254125262793</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.086263520723645</v>
@@ -19618,7 +19354,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.586964251750131</v>
+        <v>1.665467622880373</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.118596923357366</v>
@@ -19707,7 +19443,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.561792513593975</v>
+        <v>1.638604317858315</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.168261077992586</v>
@@ -19796,7 +19532,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.557174054280135</v>
+        <v>1.637386436796997</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.17788310489816</v>
@@ -19885,7 +19621,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.567397279849084</v>
+        <v>1.646044642821382</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.094267834035338</v>
@@ -19974,7 +19710,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.641578421823982</v>
+        <v>1.729951539164263</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.631469715909204</v>
@@ -20063,7 +19799,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.610711788901142</v>
+        <v>1.69316465842676</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.727168014158696</v>
@@ -20152,7 +19888,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.623874972872079</v>
+        <v>1.71516271910557</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.734197161650776</v>
@@ -20241,7 +19977,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.627854058106704</v>
+        <v>1.717966509410013</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.725310398305042</v>
@@ -20330,7 +20066,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.618133868830034</v>
+        <v>1.705746794063173</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.742219007475483</v>
@@ -20419,7 +20155,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.586942869478817</v>
+        <v>1.669595113505496</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.507142278243776</v>
@@ -20508,7 +20244,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.586181141750797</v>
+        <v>1.667771131539959</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.553567709290902</v>
@@ -20597,7 +20333,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.613548592876771</v>
+        <v>1.69861464695112</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.636351846246019</v>
@@ -20686,7 +20422,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.599977575447681</v>
+        <v>1.682573591357815</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.716157655083949</v>
@@ -20775,7 +20511,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.575079646325285</v>
+        <v>1.656921204669749</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.714393867603736</v>
@@ -20864,7 +20600,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.563472996741167</v>
+        <v>1.642723948447364</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.607992601683529</v>
@@ -20953,7 +20689,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.572028430962471</v>
+        <v>1.648181600520366</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.643341860646137</v>
@@ -21042,7 +20778,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.618906887727581</v>
+        <v>1.699324677525753</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.649362277973837</v>
@@ -21131,7 +20867,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.619264881348372</v>
+        <v>1.698952635510214</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.725071576189451</v>
@@ -21220,7 +20956,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.61072453266309</v>
+        <v>1.688351436872002</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.536599384342852</v>
@@ -21309,7 +21045,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.567632688920501</v>
+        <v>1.64316574457484</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.629208302224979</v>
@@ -21398,7 +21134,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.592606312839739</v>
+        <v>1.670547684941166</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.504946988242827</v>
@@ -21487,7 +21223,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.549969678474193</v>
+        <v>1.625978192874108</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.629865092497573</v>
@@ -21576,7 +21312,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.547932560649011</v>
+        <v>1.623678746526171</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.538591798419263</v>
@@ -21665,7 +21401,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.552065279032742</v>
+        <v>1.62600823190909</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.645845255543699</v>
@@ -21754,7 +21490,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.576320716011269</v>
+        <v>1.657827306801632</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.500709101021568</v>
@@ -21843,7 +21579,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.55547343212354</v>
+        <v>1.633895426123881</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.656979943678514</v>
@@ -21932,7 +21668,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.560824637544417</v>
+        <v>1.639371022235686</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.591763324031456</v>
@@ -22021,7 +21757,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.585120665258015</v>
+        <v>1.664871113814596</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.433710173916864</v>
@@ -22110,7 +21846,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.564922714109437</v>
+        <v>1.643496845659553</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.614530929192943</v>
@@ -22199,7 +21935,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.574539191744979</v>
+        <v>1.6527003104753</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.591932153781649</v>
@@ -22288,7 +22024,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.596268371205996</v>
+        <v>1.676194900367695</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.642604234075086</v>
@@ -22377,7 +22113,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.570369143828721</v>
+        <v>1.646827630415658</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.614363096088974</v>
@@ -22466,7 +22202,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.577989522223412</v>
+        <v>1.654261584087567</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.475143808741242</v>
@@ -22555,7 +22291,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.58593972079025</v>
+        <v>1.662543461632108</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.29801905265524</v>
@@ -22644,7 +22380,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.585256791165371</v>
+        <v>1.66218254954658</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.643920016819022</v>
@@ -22733,7 +22469,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.587140708350428</v>
+        <v>1.664503864943854</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.514992145515676</v>
@@ -22822,7 +22558,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.637387728217358</v>
+        <v>1.719264969229503</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.652652839574485</v>
@@ -22911,7 +22647,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.595891030528301</v>
+        <v>1.674778502553412</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.666567529877014</v>
@@ -23000,7 +22736,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.598724559982639</v>
+        <v>1.67745031944012</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.515438297619148</v>
@@ -23089,7 +22825,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.566298296282976</v>
+        <v>1.64289573031369</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.680079626655417</v>
@@ -23178,7 +22914,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.591165339572191</v>
+        <v>1.673222723550453</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.69924765033748</v>
@@ -23267,7 +23003,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.582893936695411</v>
+        <v>1.661362352555337</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.453459833768829</v>
@@ -23356,7 +23092,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.552640686813863</v>
+        <v>1.629146491457164</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.519753823582363</v>
@@ -23445,7 +23181,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.581510113038142</v>
+        <v>1.662003273633799</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.485008042082439</v>
@@ -23534,7 +23270,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.551522965229467</v>
+        <v>1.631505421070673</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.657547886552429</v>
@@ -23623,7 +23359,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.571341683595068</v>
+        <v>1.653297169420731</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.352531364097158</v>
@@ -23712,7 +23448,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.586659975585771</v>
+        <v>1.671510147985496</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.669979571864807</v>
@@ -23801,7 +23537,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.584610066330957</v>
+        <v>1.668910112260898</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.577216354846488</v>
@@ -23890,7 +23626,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.585841677017132</v>
+        <v>1.669324132360593</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.524134524361084</v>
@@ -23979,7 +23715,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.621077200421133</v>
+        <v>1.708313677047183</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.4784209823567</v>
@@ -24068,7 +23804,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.629390471057642</v>
+        <v>1.715138409869098</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.534726114176574</v>
@@ -24157,7 +23893,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.620168820552686</v>
+        <v>1.704881139703755</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.407948623825511</v>
@@ -24246,7 +23982,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.663791855180268</v>
+        <v>1.753377376005027</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.476807780937034</v>
@@ -24335,7 +24071,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.666271094906071</v>
+        <v>1.756231491245954</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.546120699890316</v>
@@ -24424,7 +24160,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.710027997679041</v>
+        <v>1.802045460212153</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.529494377191334</v>
@@ -24513,7 +24249,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.644623348521135</v>
+        <v>1.729204520561812</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.549901571745403</v>
@@ -24602,7 +24338,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.66996909324052</v>
+        <v>1.758804927880837</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.34592316080056</v>
@@ -24691,7 +24427,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.715643215863309</v>
+        <v>1.81058426445447</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.521663036817348</v>
@@ -24780,7 +24516,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.660755815295911</v>
+        <v>1.746770407290875</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.58927090064183</v>
@@ -24869,7 +24605,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.705057908281176</v>
+        <v>1.800052162887867</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.556435034359029</v>
@@ -24958,7 +24694,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.709374199669241</v>
+        <v>1.803387262770318</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.545001098310801</v>
@@ -25047,7 +24783,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.640867613668044</v>
+        <v>1.731329843145133</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.530836084020951</v>
@@ -25136,7 +24872,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.642261141029246</v>
+        <v>1.731627544747183</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.512727688810985</v>
@@ -25225,7 +24961,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.614947921383953</v>
+        <v>1.697129195361313</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.515424140896489</v>
@@ -25314,7 +25050,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.598130088275893</v>
+        <v>1.68427998367982</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.535132231465088</v>
@@ -25403,7 +25139,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.595762525422208</v>
+        <v>1.681402998113776</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.547826376709319</v>
@@ -25492,7 +25228,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.560733009879254</v>
+        <v>1.641293542404132</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.565316728511933</v>
@@ -25581,7 +25317,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.557828440573342</v>
+        <v>1.6398482691835</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.526367154688152</v>
@@ -25670,7 +25406,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.524225879874956</v>
+        <v>1.601679196498097</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.58653873498457</v>
@@ -25759,7 +25495,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.517988713105146</v>
+        <v>1.593628771310342</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.513048837532844</v>
@@ -25848,7 +25584,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.521157780524508</v>
+        <v>1.596711924864235</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.441314027936385</v>
@@ -25937,7 +25673,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.499250414419618</v>
+        <v>1.571861235630269</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.549217420206047</v>
@@ -26026,7 +25762,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.461206580701091</v>
+        <v>1.52695862198087</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.58678216606127</v>
@@ -26115,7 +25851,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.501770900063566</v>
+        <v>1.572882606445424</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.465582981248713</v>
@@ -26204,7 +25940,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.471370455420228</v>
+        <v>1.53548335017805</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.557320637015513</v>
@@ -26293,7 +26029,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.457604212836811</v>
+        <v>1.523128575057395</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.387531501510906</v>
@@ -26382,7 +26118,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.495098070575411</v>
+        <v>1.561532544723366</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.543575625431001</v>
@@ -26471,7 +26207,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.459464850329693</v>
+        <v>1.524210028483832</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.547310471817906</v>
@@ -26560,7 +26296,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.479041722185418</v>
+        <v>1.546711011583026</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.563272611696354</v>
@@ -26649,7 +26385,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.458497093762258</v>
+        <v>1.523418979847807</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.553014378372229</v>
@@ -26738,7 +26474,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.456451765467379</v>
+        <v>1.515887901922496</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.416237529711264</v>
@@ -27024,7 +26760,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.898650850903567</v>
+        <v>1.974684214356226</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.18766422139984</v>
@@ -27113,7 +26849,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.904429034854292</v>
+        <v>1.97941696669482</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.128491220723362</v>
@@ -27202,7 +26938,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.922866039295092</v>
+        <v>1.993579534709615</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.954034422299295</v>
@@ -27291,7 +27027,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.926875853080289</v>
+        <v>1.996260644153069</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.589032659521592</v>
@@ -27380,7 +27116,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.920718002305365</v>
+        <v>1.992230655218</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.215000269395589</v>
@@ -27469,7 +27205,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.942532612330734</v>
+        <v>2.010458788659455</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.556153269510188</v>
@@ -27558,7 +27294,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.952713102783332</v>
+        <v>2.019145019973912</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.352037847847736</v>
@@ -27647,7 +27383,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.953164982955203</v>
+        <v>2.0193057866313</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.194923740253727</v>
@@ -27736,7 +27472,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.954170672080257</v>
+        <v>2.0185469341716</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.327370124831925</v>
@@ -27825,7 +27561,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.964005900647998</v>
+        <v>2.023381201106397</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.299199786538316</v>
@@ -27914,7 +27650,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.966997131312168</v>
+        <v>2.0250320699233</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.232798080228994</v>
@@ -28003,7 +27739,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.96109746501109</v>
+        <v>2.020746838363162</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.90925299156311</v>
@@ -28092,7 +27828,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.970373989346238</v>
+        <v>2.026209820139733</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.733206498983339</v>
@@ -28181,7 +27917,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.958294814816111</v>
+        <v>2.014231998172572</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.549614465089773</v>
@@ -28270,7 +28006,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.950937499905492</v>
+        <v>2.009688472094354</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.429411985181459</v>
@@ -28359,7 +28095,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.940658836790536</v>
+        <v>1.99889593568744</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.740178722905411</v>
@@ -28448,7 +28184,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.930788334755342</v>
+        <v>1.9907642042273</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.800075044624574</v>
@@ -28537,7 +28273,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.927098598870536</v>
+        <v>1.98788303778302</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.745907139376919</v>
@@ -28626,7 +28362,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.924257704905951</v>
+        <v>1.985925065360077</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.050428753978365</v>
@@ -28715,7 +28451,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.92661692059434</v>
+        <v>1.984163384090591</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.315156117539536</v>
@@ -28804,7 +28540,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.906473339048994</v>
+        <v>1.969766997176787</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.106465405572509</v>
@@ -28893,7 +28629,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.905424141495824</v>
+        <v>1.970609451240096</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.444897354417136</v>
@@ -28982,7 +28718,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.905326538200246</v>
+        <v>1.970985833982485</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.457809745057527</v>
@@ -29071,7 +28807,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.896467021455435</v>
+        <v>1.964364985709018</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.507623712803643</v>
@@ -29160,7 +28896,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.893387620613013</v>
+        <v>1.964066624243946</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.171608819241576</v>
@@ -29249,7 +28985,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.89184321062747</v>
+        <v>1.95836434964029</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.064865206749736</v>
@@ -29338,7 +29074,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.892003027992201</v>
+        <v>1.958277849507115</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.933549170314504</v>
@@ -29427,7 +29163,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.888109195806934</v>
+        <v>1.95727693814249</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.407886377463938</v>
@@ -29516,7 +29252,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.888218195623395</v>
+        <v>1.957796874116485</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.308847340734784</v>
@@ -29605,7 +29341,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.893511273179535</v>
+        <v>1.964760226557332</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.616294799777738</v>
@@ -29694,7 +29430,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.907636530015814</v>
+        <v>1.980818609727201</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.006954813930927</v>
@@ -29783,7 +29519,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.91111985990292</v>
+        <v>1.982316847159879</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.519135291723678</v>
@@ -29872,7 +29608,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.916772584811845</v>
+        <v>1.985240790737128</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.573425988653447</v>
@@ -29961,7 +29697,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.9214855863786</v>
+        <v>1.98958094141773</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.530159577371406</v>
@@ -30050,7 +29786,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.927635215172743</v>
+        <v>1.997687570446822</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.112093834570894</v>
@@ -30139,7 +29875,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.943821118653782</v>
+        <v>2.008981522156507</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.962758423163148</v>
@@ -30228,7 +29964,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.935172174207446</v>
+        <v>2.00316729786428</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.649682579385411</v>
@@ -30317,7 +30053,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.940369990371064</v>
+        <v>2.008817161372641</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.545585720126885</v>
@@ -30406,7 +30142,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.946553737456772</v>
+        <v>2.011713482817938</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.598875934891444</v>
@@ -30495,7 +30231,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.954939928929475</v>
+        <v>2.021057215246131</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.243854793441604</v>
@@ -30584,7 +30320,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.967041326679512</v>
+        <v>2.034358240396161</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.635140685494286</v>
@@ -30673,7 +30409,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.967933489681303</v>
+        <v>2.035815779887759</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.374090780910486</v>
@@ -30762,7 +30498,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.98367592534229</v>
+        <v>2.048308177156555</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.82226969096822</v>
@@ -30851,7 +30587,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.983548311272576</v>
+        <v>2.047713024028431</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>5.159197349412186</v>
@@ -30940,7 +30676,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.971963828527567</v>
+        <v>2.036797012320072</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.945321403788404</v>
@@ -31029,7 +30765,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.966545469040487</v>
+        <v>2.033686175863777</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.612886965874037</v>
@@ -31118,7 +30854,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.976396861510647</v>
+        <v>2.043581241161441</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.820471290396743</v>
@@ -31207,7 +30943,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.978903211840194</v>
+        <v>2.046508391589754</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.776618978651297</v>
@@ -31296,7 +31032,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.973016122235102</v>
+        <v>2.04378550489596</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.832304736130989</v>
@@ -31385,7 +31121,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.973860253853123</v>
+        <v>2.046528498154077</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>5.128600230084772</v>
@@ -31474,7 +31210,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.974783837621299</v>
+        <v>2.045063690080255</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.997332329333627</v>
@@ -31563,7 +31299,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.983852635708146</v>
+        <v>2.053650700224127</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>5.224229184080118</v>
@@ -31652,7 +31388,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.980155221976195</v>
+        <v>2.050764207376649</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>5.353143893253362</v>
@@ -31741,7 +31477,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.984909608630548</v>
+        <v>2.056054396722016</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>5.156703369429724</v>
@@ -31830,7 +31566,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.980639504991907</v>
+        <v>2.048165369163834</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>5.273271998674246</v>
@@ -31919,7 +31655,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.969423453559502</v>
+        <v>2.041607666442564</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.840699230483136</v>
@@ -32008,7 +31744,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.96537301128533</v>
+        <v>2.034935286447975</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>5.074314492749413</v>
@@ -32097,7 +31833,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.960820554561368</v>
+        <v>2.033744902933539</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>5.285005301787941</v>
@@ -32186,7 +31922,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.967068577952806</v>
+        <v>2.036372838720052</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>5.016798128626201</v>
@@ -32275,7 +32011,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.970578420344505</v>
+        <v>2.039303647558908</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.473934411387027</v>
@@ -32364,7 +32100,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.974962207031302</v>
+        <v>2.043201061738162</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.982687373872372</v>
@@ -32453,7 +32189,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.969773605596319</v>
+        <v>2.039430107857696</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.756943558374555</v>
@@ -32542,7 +32278,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.96920346155425</v>
+        <v>2.037300020524591</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.498504669405923</v>
@@ -32631,7 +32367,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.9740437742285</v>
+        <v>2.037214722064011</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.566722325533429</v>
@@ -32720,7 +32456,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.971876634449915</v>
+        <v>2.036668471708136</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>5.04082676622167</v>
@@ -32809,7 +32545,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.978070651949254</v>
+        <v>2.039189364467409</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.705124658253501</v>
@@ -32898,7 +32634,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.970915188670935</v>
+        <v>2.034914983379653</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.356046638977978</v>
@@ -32987,7 +32723,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.970182111806839</v>
+        <v>2.033465426189418</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>5.280038263525875</v>
@@ -33076,7 +32812,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.96880012152814</v>
+        <v>2.035198117973012</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.281169046305055</v>
@@ -33165,7 +32901,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.973388327984645</v>
+        <v>2.037137186470003</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.375736353469522</v>
@@ -33254,7 +32990,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.973179838245129</v>
+        <v>2.040635142375029</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>5.289394456019588</v>
@@ -33343,7 +33079,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.978435885949901</v>
+        <v>2.045539403374745</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>5.329199771653137</v>
@@ -33432,7 +33168,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.973134674388986</v>
+        <v>2.039722548203351</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>5.199243635052516</v>
@@ -33521,7 +33257,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.970386937435675</v>
+        <v>2.036911237877021</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.837992221484138</v>
@@ -33610,7 +33346,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.964154877661503</v>
+        <v>2.030698578803108</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>4.848405903519844</v>
@@ -33699,7 +33435,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.942296780170645</v>
+        <v>2.011819002859577</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>4.538015592660009</v>
@@ -33788,7 +33524,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.943576055814167</v>
+        <v>2.013403399156523</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>4.399916132652601</v>
@@ -33877,7 +33613,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.944950091061865</v>
+        <v>2.011909490079536</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>4.698551377110649</v>
@@ -33966,7 +33702,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.939881516023522</v>
+        <v>2.010529149973656</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>4.673418597111222</v>
@@ -34055,7 +33791,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.928585204788763</v>
+        <v>1.999994782613342</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>4.303427524932926</v>
@@ -34144,7 +33880,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.924277323098928</v>
+        <v>1.993224815793883</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>4.670373783866483</v>
@@ -34233,7 +33969,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.917444232586839</v>
+        <v>1.990552635224156</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>4.081732074084289</v>
@@ -34322,7 +34058,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.92816198328211</v>
+        <v>1.998841806657557</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.574039533838097</v>
@@ -34411,7 +34147,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.921299531357364</v>
+        <v>1.98926173550042</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>4.069859720461592</v>
@@ -34500,7 +34236,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.909373041122171</v>
+        <v>1.97711295174459</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>4.357609685432239</v>
@@ -34589,7 +34325,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.902387082463854</v>
+        <v>1.968683039117559</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>4.361840824724701</v>
@@ -34678,7 +34414,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.894264095423833</v>
+        <v>1.962443691249181</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>4.574667528887918</v>
@@ -34964,7 +34700,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.965092048421627</v>
+        <v>2.031658616455504</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.567511758882887</v>
@@ -35053,7 +34789,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.961467178151679</v>
+        <v>2.028227360912468</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.515320775194643</v>
@@ -35142,7 +34878,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.957193501615219</v>
+        <v>2.022273654538134</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.398784261556493</v>
@@ -35231,7 +34967,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.956317146647709</v>
+        <v>2.021142576892465</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.192638313182737</v>
@@ -35320,7 +35056,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.957106378826501</v>
+        <v>2.018101521943112</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.229886198125883</v>
@@ -35409,7 +35145,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.954264431948169</v>
+        <v>2.012174924085966</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.28389887088432</v>
@@ -35498,7 +35234,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.957621679340185</v>
+        <v>2.014436775732005</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.482872851528521</v>
@@ -35587,7 +35323,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.954041016675167</v>
+        <v>2.010940359315486</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.676910103784143</v>
@@ -35676,7 +35412,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.978108094598776</v>
+        <v>2.032434580706667</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.28016339018201</v>
@@ -35765,7 +35501,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.985600869315193</v>
+        <v>2.039370260771191</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.375506043239389</v>
@@ -35854,7 +35590,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.990365039046068</v>
+        <v>2.041494344645789</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.656020261584543</v>
@@ -35943,7 +35679,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.988252043217013</v>
+        <v>2.038167753601059</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>5.152642097909246</v>
@@ -36032,7 +35768,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.99322992850921</v>
+        <v>2.045274060175111</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>5.205468473237347</v>
@@ -36121,7 +35857,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.994743015413772</v>
+        <v>2.045579765917812</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.956822966699284</v>
@@ -36210,7 +35946,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.994207133891588</v>
+        <v>2.043959428908017</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.677218935762739</v>
@@ -36299,7 +36035,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.994199492352476</v>
+        <v>2.043776684435966</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.458872230088339</v>
@@ -36388,7 +36124,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.992598900022712</v>
+        <v>2.046709599429272</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.745326264598217</v>
@@ -36477,7 +36213,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.994263875762603</v>
+        <v>2.048511867335974</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.617008093915791</v>
@@ -36566,7 +36302,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.993282476762616</v>
+        <v>2.048551490513629</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.28083426068204</v>
@@ -36655,7 +36391,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.996174949445616</v>
+        <v>2.049982064036861</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.500139415807946</v>
@@ -36744,7 +36480,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.995447802257398</v>
+        <v>2.050749489430519</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.471968601758133</v>
@@ -36833,7 +36569,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.991705688306736</v>
+        <v>2.04998957227018</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>5.055513817041746</v>
@@ -36922,7 +36658,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.997420665538176</v>
+        <v>2.05485595262112</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>5.089852122853189</v>
@@ -37011,7 +36747,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.00237539530203</v>
+        <v>2.058759110655789</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.88374257660097</v>
@@ -37100,7 +36836,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.991345985842716</v>
+        <v>2.045760505387741</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.536333792042105</v>
@@ -37189,7 +36925,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.984322319507212</v>
+        <v>2.040189086573224</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.72420289430831</v>
@@ -37278,7 +37014,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.982764884648189</v>
+        <v>2.039052751077906</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.6663680135838</v>
@@ -37367,7 +37103,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.981437980932176</v>
+        <v>2.036252881118244</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.216497592330798</v>
@@ -37456,7 +37192,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.972232740721423</v>
+        <v>2.027068234931373</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.343335838967508</v>
@@ -37545,7 +37281,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.971965241479097</v>
+        <v>2.030282951691207</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.57942110933753</v>
@@ -37634,7 +37370,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.978640280145235</v>
+        <v>2.036752717211287</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.61736589831149</v>
@@ -37723,7 +37459,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.979572755617971</v>
+        <v>2.037210762544535</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.541875839440093</v>
@@ -37812,7 +37548,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.980644319909902</v>
+        <v>2.039276727133367</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.393324648708343</v>
@@ -37901,7 +37637,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.976572627556403</v>
+        <v>2.035751748251262</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.732024412294852</v>
@@ -37990,7 +37726,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.971550782573794</v>
+        <v>2.031933344519756</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.890320273391597</v>
@@ -38079,7 +37815,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.969857068654249</v>
+        <v>2.031383680704347</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.966965783500468</v>
@@ -38168,7 +37904,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.968395901126923</v>
+        <v>2.025531604539116</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.457497436064797</v>
@@ -38257,7 +37993,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.948462942966863</v>
+        <v>2.011784524860731</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.70316071257841</v>
@@ -38346,7 +38082,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.949412277553905</v>
+        <v>2.010517907690274</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.486335206228926</v>
@@ -38435,7 +38171,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.9546718214459</v>
+        <v>2.019091219887827</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.818187076822992</v>
@@ -38524,7 +38260,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.956204538485893</v>
+        <v>2.020191813750276</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.646539681127352</v>
@@ -38613,7 +38349,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.950419651110322</v>
+        <v>2.015582667210569</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.547386844006785</v>
@@ -38702,7 +38438,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.954654932239454</v>
+        <v>2.017599090486556</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.385837461736454</v>
@@ -38791,7 +38527,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.958143597554084</v>
+        <v>2.023721488426113</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.802804738700396</v>
@@ -38880,7 +38616,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.954853246626915</v>
+        <v>2.018461868638947</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.243683343720836</v>
@@ -38969,7 +38705,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.953893629798273</v>
+        <v>2.017627532788231</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.443162938735822</v>
@@ -39058,7 +38794,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.952485422684628</v>
+        <v>2.017537647238197</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.270624205064038</v>
@@ -39147,7 +38883,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.941188552779209</v>
+        <v>2.005013803545513</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.296764760852765</v>
@@ -39236,7 +38972,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.942714675939997</v>
+        <v>2.008541966634449</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.296843108460559</v>
@@ -39325,7 +39061,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.94268794192108</v>
+        <v>2.007592835362495</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.234095455859385</v>
@@ -39414,7 +39150,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.949115445411574</v>
+        <v>2.013009062132686</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.342415728832688</v>
@@ -39503,7 +39239,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.96930639883211</v>
+        <v>2.03187248451923</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.712787217967767</v>
@@ -39592,7 +39328,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.970013043992769</v>
+        <v>2.034572386890784</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.563163962813736</v>
@@ -39681,7 +39417,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.968874983673971</v>
+        <v>2.032299327579632</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.522654669990386</v>
@@ -39770,7 +39506,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.970327521156109</v>
+        <v>2.033623493376018</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.822533555290878</v>
@@ -39859,7 +39595,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.974818136205639</v>
+        <v>2.033510956039457</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>5.084294258885548</v>
@@ -39948,7 +39684,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.983630806309905</v>
+        <v>2.041295988102511</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.525253715943435</v>
@@ -40037,7 +39773,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.981994843818865</v>
+        <v>2.040717444942376</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.382423718941405</v>
@@ -40126,7 +39862,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.987856043153028</v>
+        <v>2.045547549895174</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.293232464604453</v>
@@ -40215,7 +39951,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.9893938104719</v>
+        <v>2.046326780397933</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.792152541744296</v>
@@ -40304,7 +40040,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.994201679019768</v>
+        <v>2.05398706056961</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.459495011784914</v>
@@ -40393,7 +40129,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.99568500650364</v>
+        <v>2.055927441533203</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.802778617196921</v>
@@ -40482,7 +40218,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>2.01117036173881</v>
+        <v>2.071825520552621</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.979140126184137</v>
@@ -40571,7 +40307,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>2.01366654662493</v>
+        <v>2.07394457595937</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.694755810275124</v>
@@ -40660,7 +40396,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>2.015740710001353</v>
+        <v>2.078845756087703</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>5.031961247280255</v>
@@ -40749,7 +40485,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>2.008795498150877</v>
+        <v>2.074286395566512</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.785716259179886</v>
@@ -40838,7 +40574,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.994660282764631</v>
+        <v>2.06261937331922</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.36565483666178</v>
@@ -40927,7 +40663,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.988174887435203</v>
+        <v>2.057981959922192</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.295122361703127</v>
@@ -41016,7 +40752,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.986807289554723</v>
+        <v>2.058264418763691</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.395840933894373</v>
@@ -41105,7 +40841,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.981177325401989</v>
+        <v>2.056837091573625</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.392736252615274</v>
@@ -41194,7 +40930,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.977541928608958</v>
+        <v>2.055025092754032</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.932050977936654</v>
@@ -41283,7 +41019,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.974286958168966</v>
+        <v>2.052312619187441</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.933976087936308</v>
@@ -41372,7 +41108,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.962930884060111</v>
+        <v>2.040503549869988</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>4.208389792752004</v>
@@ -41461,7 +41197,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.962858434832378</v>
+        <v>2.042537675960706</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>4.667070435750637</v>
@@ -41550,7 +41286,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.9536295830113</v>
+        <v>2.034374950937727</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>4.154532356143031</v>
@@ -41639,7 +41375,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.953544804116669</v>
+        <v>2.032410877610361</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.841857774679585</v>
@@ -41728,7 +41464,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.951709266737792</v>
+        <v>2.028555705829378</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>4.18177108258288</v>
@@ -41817,7 +41553,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.939240486860907</v>
+        <v>2.017319075951932</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>4.216603007715801</v>
@@ -41906,7 +41642,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.925588375420745</v>
+        <v>2.001771804762384</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>4.2794450209695</v>
@@ -41995,7 +41731,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.928400305019296</v>
+        <v>2.003258515434662</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>4.221415802573983</v>
@@ -42084,7 +41820,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.928952813837006</v>
+        <v>2.001375797849391</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>4.204976474046213</v>
@@ -42173,7 +41909,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.945907645901594</v>
+        <v>2.015279872944593</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>4.360483794358044</v>
@@ -42262,7 +41998,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.93269036803638</v>
+        <v>2.005009049022966</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>4.015772116664436</v>
@@ -42351,7 +42087,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.926777579880016</v>
+        <v>1.99499742792183</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.683597572467135</v>
@@ -42440,7 +42176,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.927979105982203</v>
+        <v>1.995460932738292</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>4.086408769038807</v>
@@ -42529,7 +42265,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.934928609697134</v>
+        <v>2.002501100921553</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>4.461356201462999</v>
@@ -42618,7 +42354,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.940398434068952</v>
+        <v>2.0065024184294</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>4.16648110507985</v>
@@ -42904,7 +42640,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.859008217490693</v>
+        <v>1.939202061475985</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.668043889522267</v>
@@ -42993,7 +42729,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.861762530216832</v>
+        <v>1.941756825846764</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.307869879574396</v>
@@ -43082,7 +42818,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.887483737853924</v>
+        <v>1.969985457547853</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.973761979416869</v>
@@ -43171,7 +42907,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.897110713849434</v>
+        <v>1.983498253569914</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.449527020412077</v>
@@ -43260,7 +42996,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.913704105489259</v>
+        <v>1.997163598357748</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.927996383594139</v>
@@ -43349,7 +43085,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.923851322966516</v>
+        <v>2.005374866333336</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.630914197207836</v>
@@ -43438,7 +43174,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.922313672297168</v>
+        <v>2.004020135032594</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.720959298923545</v>
@@ -43527,7 +43263,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.921445318393378</v>
+        <v>2.002010006159933</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.100854490575</v>
@@ -43616,7 +43352,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.918725671312443</v>
+        <v>2.002471210538049</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.529268539851054</v>
@@ -43705,7 +43441,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.91488360234563</v>
+        <v>1.996498839104283</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.032139465665337</v>
@@ -43794,7 +43530,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.931841655213744</v>
+        <v>2.009986029434226</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.234233001700085</v>
@@ -43883,7 +43619,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.918752060363891</v>
+        <v>1.990852976387817</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.415904948519965</v>
@@ -43972,7 +43708,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.92523094617987</v>
+        <v>1.999063477789526</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.431483192758063</v>
@@ -44061,7 +43797,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.914987346559389</v>
+        <v>1.992556638000279</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.555784425936319</v>
@@ -44150,7 +43886,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.899593368992304</v>
+        <v>1.978983971717225</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.511352041923889</v>
@@ -44239,7 +43975,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.867026736816296</v>
+        <v>1.949693800304777</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.420442836217712</v>
@@ -44328,7 +44064,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.862343565778359</v>
+        <v>1.944237624030113</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.710024283342944</v>
@@ -44417,7 +44153,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.842070337969423</v>
+        <v>1.925246091576891</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.704876848453325</v>
@@ -44506,7 +44242,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.833103723491033</v>
+        <v>1.917813926215045</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.684751654825464</v>
@@ -44595,7 +44331,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.821683775383719</v>
+        <v>1.908856359039929</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.576670779675578</v>
@@ -44684,7 +44420,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.820425933153421</v>
+        <v>1.903008332081203</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.682724861142541</v>
@@ -44773,7 +44509,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.821193287123299</v>
+        <v>1.902057279668329</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.396585317682175</v>
@@ -44862,7 +44598,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.826740839816014</v>
+        <v>1.908515805613118</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.256055040038379</v>
@@ -44951,7 +44687,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.815815776890298</v>
+        <v>1.89923414997524</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.708470635702118</v>
@@ -45040,7 +44776,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.8190542101389</v>
+        <v>1.901975689746471</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.416274975761139</v>
@@ -45129,7 +44865,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.818088358086922</v>
+        <v>1.897129973653321</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.350544416602877</v>
@@ -45218,7 +44954,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.831986219213394</v>
+        <v>1.912931603517643</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.911997383792738</v>
@@ -45307,7 +45043,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.81956354910385</v>
+        <v>1.897168393181817</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.068105963699481</v>
@@ -45396,7 +45132,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.825606588228988</v>
+        <v>1.90367270995022</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.068738674009438</v>
@@ -45485,7 +45221,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.846174945823745</v>
+        <v>1.921763360777269</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.739555637421214</v>
@@ -45574,7 +45310,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.870099317429437</v>
+        <v>1.943947122790033</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.848598936961289</v>
@@ -45663,7 +45399,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.874625022017375</v>
+        <v>1.951017024095482</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.588480366308815</v>
@@ -45752,7 +45488,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.896290360737167</v>
+        <v>1.970404751229949</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.203497299752439</v>
@@ -45841,7 +45577,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.895819164180214</v>
+        <v>1.962481599448785</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.791392878417705</v>
@@ -45930,7 +45666,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.899281415059117</v>
+        <v>1.961594068192655</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.429842304626542</v>
@@ -46019,7 +45755,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.897222276815286</v>
+        <v>1.966093119424544</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.727423345903211</v>
@@ -46108,7 +45844,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.890604969683445</v>
+        <v>1.961277437786567</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.302991130345071</v>
@@ -46197,7 +45933,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.914293101530192</v>
+        <v>1.980399918221447</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.84352774417332</v>
@@ -46286,7 +46022,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.909442174743007</v>
+        <v>1.973105238073417</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.340495774951997</v>
@@ -46375,7 +46111,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.905790692960375</v>
+        <v>1.972346896424341</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.148075945921819</v>
@@ -46464,7 +46200,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.904200288024861</v>
+        <v>1.97644089213325</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.519301489021754</v>
@@ -46553,7 +46289,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.894096459407691</v>
+        <v>1.966022841782069</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.693557221744404</v>
@@ -46642,7 +46378,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.906199472475887</v>
+        <v>1.982114669290278</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.757435789802044</v>
@@ -46731,7 +46467,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.90378619745605</v>
+        <v>1.981405753220393</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.709377824392638</v>
@@ -46820,7 +46556,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.897497389874748</v>
+        <v>1.974475445449802</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.969046383599452</v>
@@ -46909,7 +46645,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.898139583740597</v>
+        <v>1.975674135320557</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.564427950847929</v>
@@ -46998,7 +46734,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.889225343671418</v>
+        <v>1.964427163902177</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.005250478755426</v>
@@ -47087,7 +46823,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.891732986426452</v>
+        <v>1.966949642235592</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.501339238494628</v>
@@ -47176,7 +46912,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.893109127276048</v>
+        <v>1.977370886665861</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.983752237459982</v>
@@ -47265,7 +47001,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.894074092468752</v>
+        <v>1.977839971514033</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.992740927252155</v>
@@ -47354,7 +47090,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.898719873200524</v>
+        <v>1.986156829677712</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.777112551152455</v>
@@ -47443,7 +47179,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.901059727491704</v>
+        <v>1.988699672293823</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.512712965067282</v>
@@ -47532,7 +47268,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.892641147688261</v>
+        <v>1.98252668819307</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.431606477621878</v>
@@ -47621,7 +47357,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.902111343661121</v>
+        <v>1.993951164843238</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.80603062261593</v>
@@ -47710,7 +47446,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.905255309443914</v>
+        <v>1.993809392158475</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.064579540311281</v>
@@ -47799,7 +47535,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.90292749667467</v>
+        <v>1.991278741276939</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.709737486584401</v>
@@ -47888,7 +47624,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.917895846328983</v>
+        <v>2.000063259434636</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.668087590788017</v>
@@ -47977,7 +47713,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.920213216982481</v>
+        <v>2.000808391747348</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.164746483090903</v>
@@ -48066,7 +47802,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.913369123678415</v>
+        <v>1.993286583493456</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.476504788731607</v>
@@ -48155,7 +47891,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.912938621802792</v>
+        <v>1.995381392156873</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.078536685595135</v>
@@ -48244,7 +47980,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.910767182342297</v>
+        <v>1.992854991885811</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.5757923005565</v>
@@ -48333,7 +48069,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.904554666593774</v>
+        <v>1.988583760201415</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.448891192113957</v>
@@ -48422,7 +48158,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.919528163572281</v>
+        <v>2.002605482604236</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.080527109031961</v>
@@ -48511,7 +48247,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.924523870103973</v>
+        <v>2.007710884394823</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.589041897808317</v>
@@ -48600,7 +48336,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.932097454969659</v>
+        <v>2.012636585847941</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.792472157509128</v>
@@ -48689,7 +48425,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.932650559936473</v>
+        <v>2.014956758686663</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.518687166921938</v>
@@ -48778,7 +48514,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.93936376876824</v>
+        <v>2.018148769437487</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.779020001063208</v>
@@ -48867,7 +48603,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.93658480879115</v>
+        <v>2.010903321431507</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.867957821830832</v>
@@ -48956,7 +48692,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.927936897794529</v>
+        <v>2.003473274915639</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.494742131492353</v>
@@ -49045,7 +48781,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.914014860076437</v>
+        <v>1.994569235950865</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.126101839967363</v>
@@ -49134,7 +48870,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.915131467224324</v>
+        <v>1.992765660488572</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.914687609336494</v>
@@ -49223,7 +48959,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.922733731798158</v>
+        <v>2.001083978529559</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.009818855343866</v>
@@ -49312,7 +49048,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.920212505490949</v>
+        <v>2.00091547633641</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>4.043167923124286</v>
@@ -49401,7 +49137,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.912049664188087</v>
+        <v>1.995697249458753</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>4.51205326089571</v>
@@ -49490,7 +49226,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.902953930615089</v>
+        <v>1.985536248275177</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>4.507342783102836</v>
@@ -49579,7 +49315,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.897670115485432</v>
+        <v>1.981091669249916</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>4.051256651334609</v>
@@ -49668,7 +49404,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.905094819472499</v>
+        <v>1.987726822830812</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>4.550287897985624</v>
@@ -49757,7 +49493,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.893054548224958</v>
+        <v>1.974518497935995</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>4.336056510762115</v>
@@ -49846,7 +49582,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.879012324074878</v>
+        <v>1.959986275029696</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>4.39171879282443</v>
@@ -49935,7 +49671,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.879902571310976</v>
+        <v>1.962054222580045</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>4.32345137553494</v>
@@ -50024,7 +49760,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.873969127880377</v>
+        <v>1.955231993567851</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.992566681905715</v>
@@ -50113,7 +49849,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.867665530425368</v>
+        <v>1.948166354729694</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.80813626951536</v>
@@ -50202,7 +49938,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.870848571506703</v>
+        <v>1.95357597869276</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>4.144910636935316</v>
@@ -50291,7 +50027,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.868997210863592</v>
+        <v>1.951334338442388</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.584328175545746</v>
@@ -50380,7 +50116,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.880216188162813</v>
+        <v>1.961644641541003</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.755060584738024</v>
@@ -50469,7 +50205,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.885061071381863</v>
+        <v>1.964387763632395</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>4.404552060838492</v>
@@ -50558,7 +50294,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.869424774762226</v>
+        <v>1.95161692437444</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.845651793049972</v>
@@ -50844,7 +50580,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.589923497621263</v>
+        <v>1.670137315027743</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.84999849242617</v>
@@ -50933,7 +50669,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.596165091500897</v>
+        <v>1.677144182663559</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.531635904417438</v>
@@ -51022,7 +50758,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.646085541624111</v>
+        <v>1.732269454129791</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.883479617014944</v>
@@ -51111,7 +50847,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.684004588577304</v>
+        <v>1.771534596174118</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.472473596225834</v>
@@ -51200,7 +50936,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.670588994178835</v>
+        <v>1.757869487364494</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.751990435511771</v>
@@ -51289,7 +51025,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.714985380131298</v>
+        <v>1.80371541077418</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.507669566443155</v>
@@ -51378,7 +51114,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.706484800225776</v>
+        <v>1.786415455618219</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.676832661729415</v>
@@ -51467,7 +51203,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.697855240133451</v>
+        <v>1.780555488808976</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.754922137333006</v>
@@ -51556,7 +51292,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.696575381074254</v>
+        <v>1.782728867147995</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.590579011889805</v>
@@ -51645,7 +51381,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.725770966298116</v>
+        <v>1.808647093274287</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.815778301439701</v>
@@ -51734,7 +51470,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.729748747586504</v>
+        <v>1.813439985632601</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.059707011095026</v>
@@ -51823,7 +51559,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.698079221495213</v>
+        <v>1.774467404616097</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.02556896639284</v>
@@ -51912,7 +51648,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.724680566951029</v>
+        <v>1.807580568532964</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.886100069695196</v>
@@ -52001,7 +51737,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.728255411137087</v>
+        <v>1.812476864804359</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.858214365675943</v>
@@ -52090,7 +51826,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.691418507525656</v>
+        <v>1.773463670648109</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.844431099379605</v>
@@ -52179,7 +51915,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.671617227962094</v>
+        <v>1.755125134875964</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.55414875688409</v>
@@ -52268,7 +52004,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.684345489571586</v>
+        <v>1.764452204252767</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.720691369955869</v>
@@ -52357,7 +52093,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.650536776727695</v>
+        <v>1.730050641904747</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.745199606717533</v>
@@ -52446,7 +52182,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.61775270900965</v>
+        <v>1.698360597570312</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.667153198050706</v>
@@ -52535,7 +52271,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.641175910369811</v>
+        <v>1.721085149884566</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.606920981062262</v>
@@ -52624,7 +52360,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.639669470948772</v>
+        <v>1.717029509155176</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.683594889076423</v>
@@ -52713,7 +52449,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.663382863255253</v>
+        <v>1.743886110557642</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.434429369881169</v>
@@ -52802,7 +52538,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.676329971483626</v>
+        <v>1.758633221760289</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.529715669674993</v>
@@ -52891,7 +52627,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.67373153749438</v>
+        <v>1.755750966761037</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.635984201727386</v>
@@ -52980,7 +52716,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.657501575348709</v>
+        <v>1.737659037492064</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.516389654212087</v>
@@ -53069,7 +52805,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.645691281013906</v>
+        <v>1.726697731746979</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.572808373604299</v>
@@ -53158,7 +52894,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.674196115470078</v>
+        <v>1.756282168322521</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.427477078384473</v>
@@ -53247,7 +52983,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.65118926983801</v>
+        <v>1.73128840992947</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.576853611353177</v>
@@ -53336,7 +53072,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.651055603057487</v>
+        <v>1.729323829109587</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.512421736122157</v>
@@ -53425,7 +53161,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.683080455262673</v>
+        <v>1.754443860733097</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.607345000200313</v>
@@ -53514,7 +53250,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.695132908171564</v>
+        <v>1.774320793165377</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.799868165980315</v>
@@ -53603,7 +53339,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.711026150934942</v>
+        <v>1.790687319318117</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.624017952666668</v>
@@ -53692,7 +53428,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.743038400824491</v>
+        <v>1.821247666518684</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.0085911786673</v>
@@ -53781,7 +53517,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.751175760267486</v>
+        <v>1.829447956997081</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.994157508154175</v>
@@ -53870,7 +53606,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.75215440686163</v>
+        <v>1.830530219416297</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.078765961089716</v>
@@ -53959,7 +53695,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.755861851689651</v>
+        <v>1.830938165866826</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.92802125537691</v>
@@ -54048,7 +53784,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.71217191879524</v>
+        <v>1.788554868174904</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.940357715662076</v>
@@ -54137,7 +53873,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.735659266032341</v>
+        <v>1.808427709319202</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.949337145094659</v>
@@ -54226,7 +53962,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.737620593586994</v>
+        <v>1.800670095468918</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.607235316584411</v>
@@ -54315,7 +54051,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.740309544797518</v>
+        <v>1.812875871788195</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.759931026074571</v>
@@ -54404,7 +54140,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.772054808814124</v>
+        <v>1.84194982995475</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.89551785968787</v>
@@ -54493,7 +54229,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.759635860238621</v>
+        <v>1.821069725748818</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.754164473872154</v>
@@ -54582,7 +54318,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.771670340352554</v>
+        <v>1.842932728678974</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.959822599320199</v>
@@ -54671,7 +54407,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.768558808696387</v>
+        <v>1.841506255413905</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.974008660310716</v>
@@ -54760,7 +54496,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.765229765703601</v>
+        <v>1.835816803019592</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.668998732356409</v>
@@ -54849,7 +54585,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.771251431880365</v>
+        <v>1.845182336729677</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.043258134459371</v>
@@ -54938,7 +54674,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.766309923432606</v>
+        <v>1.840137797267458</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.067485827975924</v>
@@ -55027,7 +54763,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.750870318510558</v>
+        <v>1.822615433370292</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.460369446587765</v>
@@ -55116,7 +54852,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.763240583415319</v>
+        <v>1.837311434185624</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.044609610031055</v>
@@ -55205,7 +54941,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.751110970744493</v>
+        <v>1.822656661084051</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.071400002746439</v>
@@ -55294,7 +55030,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.748474067981568</v>
+        <v>1.829600192772079</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.06839862695786</v>
@@ -55383,7 +55119,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.786015848410063</v>
+        <v>1.866868336263925</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.97959666813172</v>
@@ -55472,7 +55208,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.788170223038795</v>
+        <v>1.870151636572504</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.874918642583582</v>
@@ -55561,7 +55297,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.789855988997846</v>
+        <v>1.871740296497763</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.657304763830262</v>
@@ -55650,7 +55386,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.795948357370382</v>
+        <v>1.877080531671732</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.851624390605659</v>
@@ -55739,7 +55475,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.762972446955747</v>
+        <v>1.848440964873848</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.81563277717221</v>
@@ -55828,7 +55564,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.783321589109553</v>
+        <v>1.863503808835603</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.583668583747336</v>
@@ -55917,7 +55653,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.761746182152943</v>
+        <v>1.849035853323523</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.790161511140703</v>
@@ -56006,7 +55742,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.762646486885958</v>
+        <v>1.849928340399288</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.95293639510955</v>
@@ -56095,7 +55831,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.75888411102184</v>
+        <v>1.844775943683178</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.93937895990055</v>
@@ -56184,7 +55920,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.76077619887885</v>
+        <v>1.847672290294937</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.936130583601147</v>
@@ -56273,7 +56009,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.741160035599196</v>
+        <v>1.822281200999573</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.945163221106014</v>
@@ -56362,7 +56098,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.768367707588739</v>
+        <v>1.85776947579439</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.97707919211342</v>
@@ -56451,7 +56187,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.775296025248133</v>
+        <v>1.863055162437033</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.982649382873207</v>
@@ -56540,7 +56276,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.781437713944091</v>
+        <v>1.86234150453914</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.917657959669831</v>
@@ -56629,7 +56365,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.769976026804782</v>
+        <v>1.857358189014573</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.162918070048739</v>
@@ -56718,7 +56454,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.766300143426282</v>
+        <v>1.854423956475511</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.142629393624229</v>
@@ -56807,7 +56543,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.736234783495652</v>
+        <v>1.820638417014646</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.807846803048115</v>
@@ -56896,7 +56632,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.764008132226835</v>
+        <v>1.850876331704889</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.96449690278235</v>
@@ -56985,7 +56721,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.759986080310587</v>
+        <v>1.846899974627404</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.948145144808054</v>
@@ -57074,7 +56810,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.763699094742726</v>
+        <v>1.847187652864429</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.931994401815865</v>
@@ -57163,7 +56899,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.791948054804184</v>
+        <v>1.871112338671725</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.229052395548904</v>
@@ -57252,7 +56988,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.795526623859982</v>
+        <v>1.874385703535768</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.000950686848346</v>
@@ -57341,7 +57077,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.761450658711457</v>
+        <v>1.842457495090472</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.844240654527038</v>
@@ -57430,7 +57166,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.786233998748033</v>
+        <v>1.865766932941804</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.859506029500952</v>
@@ -57519,7 +57255,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.756126682229483</v>
+        <v>1.835027212107755</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.797909493479421</v>
@@ -57608,7 +57344,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.781427527712298</v>
+        <v>1.858732355774406</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.651359700153201</v>
@@ -57697,7 +57433,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.762838446702303</v>
+        <v>1.834718548503078</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.836165943447343</v>
@@ -57786,7 +57522,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.740610716485388</v>
+        <v>1.816219704785825</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.786415786636561</v>
@@ -57875,7 +57611,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.746266702855956</v>
+        <v>1.822497611645945</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.606040067427527</v>
@@ -57964,7 +57700,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.74136274744304</v>
+        <v>1.808565245782778</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.888535582349831</v>
@@ -58053,7 +57789,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.70857822039681</v>
+        <v>1.787885748272132</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.826122604819076</v>
@@ -58142,7 +57878,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.726345304274127</v>
+        <v>1.806602061760057</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.867753586919529</v>
@@ -58231,7 +57967,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.697672344911377</v>
+        <v>1.775581510023998</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.921631177471984</v>
@@ -58320,7 +58056,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.671156572365013</v>
+        <v>1.749588949557675</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.968087031473772</v>
@@ -58409,7 +58145,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.691638092115054</v>
+        <v>1.770959487648054</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.80793133116217</v>
@@ -58498,7 +58234,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.672421635216989</v>
+        <v>1.742572656157203</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.713500753437811</v>
